--- a/Excel/镇魂街/relic.神器.xlsx
+++ b/Excel/镇魂街/relic.神器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="全局属性筛选器" sheetId="31" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7956,8 +7957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22005,11 +22006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M903"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D880" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I903" sqref="I903"/>
+      <selection pane="bottomRight" activeCell="O891" sqref="O891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/relic.神器.xlsx
+++ b/Excel/镇魂街/relic.神器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -7522,7 +7522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -8070,7 +8070,7 @@
   <dimension ref="A1:S213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9846,7 +9846,7 @@
         <v>1442</v>
       </c>
       <c r="K34" s="3">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="3"/>
@@ -9897,7 +9897,7 @@
         <v>1442</v>
       </c>
       <c r="K35" s="3">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="3"/>
@@ -9948,7 +9948,7 @@
         <v>1442</v>
       </c>
       <c r="K36" s="3">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="3"/>
@@ -9999,7 +9999,7 @@
         <v>1442</v>
       </c>
       <c r="K37" s="3">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="3"/>
@@ -10050,7 +10050,7 @@
         <v>1442</v>
       </c>
       <c r="K38" s="3">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="3"/>
@@ -10105,7 +10105,7 @@
         <v>1442</v>
       </c>
       <c r="K39" s="3">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="3"/>
@@ -10156,7 +10156,7 @@
         <v>1442</v>
       </c>
       <c r="K40" s="3">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="3"/>
@@ -10207,7 +10207,7 @@
         <v>1442</v>
       </c>
       <c r="K41" s="3">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="3"/>
@@ -10258,7 +10258,7 @@
         <v>1442</v>
       </c>
       <c r="K42" s="3">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="3"/>
@@ -10309,7 +10309,7 @@
         <v>1442</v>
       </c>
       <c r="K43" s="3">
-        <v>253</v>
+        <v>361</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="3"/>
@@ -10364,7 +10364,7 @@
         <v>1442</v>
       </c>
       <c r="K44" s="3">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="3"/>
@@ -10415,7 +10415,7 @@
         <v>1442</v>
       </c>
       <c r="K45" s="3">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="3"/>
@@ -10466,7 +10466,7 @@
         <v>1442</v>
       </c>
       <c r="K46" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="3"/>
@@ -10517,7 +10517,7 @@
         <v>1442</v>
       </c>
       <c r="K47" s="3">
-        <v>354</v>
+        <v>505</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="3"/>
@@ -10568,7 +10568,7 @@
         <v>1442</v>
       </c>
       <c r="K48" s="3">
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="3"/>
@@ -10623,7 +10623,7 @@
         <v>1442</v>
       </c>
       <c r="K49" s="3">
-        <v>404</v>
+        <v>578</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="3"/>
@@ -10674,7 +10674,7 @@
         <v>1442</v>
       </c>
       <c r="K50" s="3">
-        <v>429</v>
+        <v>614</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="3"/>
@@ -10725,7 +10725,7 @@
         <v>1442</v>
       </c>
       <c r="K51" s="3">
-        <v>455</v>
+        <v>650</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="3"/>
@@ -10776,7 +10776,7 @@
         <v>1442</v>
       </c>
       <c r="K52" s="3">
-        <v>480</v>
+        <v>686</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="3"/>
@@ -10827,7 +10827,7 @@
         <v>1442</v>
       </c>
       <c r="K53" s="3">
-        <v>505</v>
+        <v>722</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="3"/>
@@ -10882,7 +10882,7 @@
         <v>1442</v>
       </c>
       <c r="K54" s="3">
-        <v>530</v>
+        <v>758</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="3"/>
@@ -10933,7 +10933,7 @@
         <v>1442</v>
       </c>
       <c r="K55" s="3">
-        <v>556</v>
+        <v>794</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="3"/>
@@ -10984,7 +10984,7 @@
         <v>1442</v>
       </c>
       <c r="K56" s="3">
-        <v>581</v>
+        <v>830</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="3"/>
@@ -11035,7 +11035,7 @@
         <v>1442</v>
       </c>
       <c r="K57" s="3">
-        <v>606</v>
+        <v>866</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="3"/>
@@ -11086,7 +11086,7 @@
         <v>1442</v>
       </c>
       <c r="K58" s="3">
-        <v>631</v>
+        <v>903</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="3"/>
@@ -11141,7 +11141,7 @@
         <v>1442</v>
       </c>
       <c r="K59" s="3">
-        <v>657</v>
+        <v>939</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="3"/>
@@ -11192,7 +11192,7 @@
         <v>1442</v>
       </c>
       <c r="K60" s="3">
-        <v>682</v>
+        <v>975</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="3"/>
@@ -11243,7 +11243,7 @@
         <v>1442</v>
       </c>
       <c r="K61" s="3">
-        <v>707</v>
+        <v>1011</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="3"/>
@@ -11294,7 +11294,7 @@
         <v>1442</v>
       </c>
       <c r="K62" s="3">
-        <v>732</v>
+        <v>1047</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="3"/>
@@ -11345,7 +11345,7 @@
         <v>1442</v>
       </c>
       <c r="K63" s="3">
-        <v>758</v>
+        <v>1083</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="3"/>
@@ -12954,7 +12954,7 @@
         <v>1442</v>
       </c>
       <c r="K94" s="3">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="3"/>
@@ -13005,7 +13005,7 @@
         <v>1442</v>
       </c>
       <c r="K95" s="3">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="L95" s="4"/>
       <c r="M95" s="3"/>
@@ -13056,7 +13056,7 @@
         <v>1442</v>
       </c>
       <c r="K96" s="3">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="L96" s="4"/>
       <c r="M96" s="3"/>
@@ -13107,7 +13107,7 @@
         <v>1442</v>
       </c>
       <c r="K97" s="3">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="3"/>
@@ -13158,7 +13158,7 @@
         <v>1442</v>
       </c>
       <c r="K98" s="3">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="3"/>
@@ -13213,7 +13213,7 @@
         <v>1442</v>
       </c>
       <c r="K99" s="3">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="3"/>
@@ -13264,7 +13264,7 @@
         <v>1442</v>
       </c>
       <c r="K100" s="3">
-        <v>265</v>
+        <v>379</v>
       </c>
       <c r="L100" s="4"/>
       <c r="M100" s="3"/>
@@ -13315,7 +13315,7 @@
         <v>1442</v>
       </c>
       <c r="K101" s="3">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="L101" s="4"/>
       <c r="M101" s="3"/>
@@ -13366,7 +13366,7 @@
         <v>1442</v>
       </c>
       <c r="K102" s="3">
-        <v>341</v>
+        <v>487</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="3"/>
@@ -13417,7 +13417,7 @@
         <v>1442</v>
       </c>
       <c r="K103" s="3">
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="3"/>
@@ -13472,7 +13472,7 @@
         <v>1442</v>
       </c>
       <c r="K104" s="3">
-        <v>417</v>
+        <v>596</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="3"/>
@@ -13523,7 +13523,7 @@
         <v>1442</v>
       </c>
       <c r="K105" s="3">
-        <v>455</v>
+        <v>650</v>
       </c>
       <c r="L105" s="4"/>
       <c r="M105" s="3"/>
@@ -13574,7 +13574,7 @@
         <v>1442</v>
       </c>
       <c r="K106" s="3">
-        <v>493</v>
+        <v>704</v>
       </c>
       <c r="L106" s="4"/>
       <c r="M106" s="3"/>
@@ -13625,7 +13625,7 @@
         <v>1442</v>
       </c>
       <c r="K107" s="3">
-        <v>531</v>
+        <v>758</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="3"/>
@@ -13676,7 +13676,7 @@
         <v>1442</v>
       </c>
       <c r="K108" s="3">
-        <v>569</v>
+        <v>812</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="3"/>
@@ -13731,7 +13731,7 @@
         <v>1442</v>
       </c>
       <c r="K109" s="3">
-        <v>606</v>
+        <v>866</v>
       </c>
       <c r="L109" s="4"/>
       <c r="M109" s="3"/>
@@ -13782,7 +13782,7 @@
         <v>1442</v>
       </c>
       <c r="K110" s="3">
-        <v>644</v>
+        <v>921</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="3"/>
@@ -13833,7 +13833,7 @@
         <v>1442</v>
       </c>
       <c r="K111" s="3">
-        <v>682</v>
+        <v>975</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="3"/>
@@ -13884,7 +13884,7 @@
         <v>1442</v>
       </c>
       <c r="K112" s="3">
-        <v>720</v>
+        <v>1029</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="3"/>
@@ -13935,7 +13935,7 @@
         <v>1442</v>
       </c>
       <c r="K113" s="3">
-        <v>758</v>
+        <v>1083</v>
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="3"/>
@@ -13990,7 +13990,7 @@
         <v>1442</v>
       </c>
       <c r="K114" s="3">
-        <v>796</v>
+        <v>1137</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="3"/>
@@ -14041,7 +14041,7 @@
         <v>1442</v>
       </c>
       <c r="K115" s="3">
-        <v>834</v>
+        <v>1191</v>
       </c>
       <c r="L115" s="4"/>
       <c r="M115" s="3"/>
@@ -14092,7 +14092,7 @@
         <v>1442</v>
       </c>
       <c r="K116" s="3">
-        <v>872</v>
+        <v>1245</v>
       </c>
       <c r="L116" s="4"/>
       <c r="M116" s="3"/>
@@ -14143,7 +14143,7 @@
         <v>1442</v>
       </c>
       <c r="K117" s="3">
-        <v>910</v>
+        <v>1300</v>
       </c>
       <c r="L117" s="4"/>
       <c r="M117" s="3"/>
@@ -14194,7 +14194,7 @@
         <v>1442</v>
       </c>
       <c r="K118" s="3">
-        <v>948</v>
+        <v>1354</v>
       </c>
       <c r="L118" s="4"/>
       <c r="M118" s="3"/>
@@ -14249,7 +14249,7 @@
         <v>1442</v>
       </c>
       <c r="K119" s="3">
-        <v>985</v>
+        <v>1408</v>
       </c>
       <c r="L119" s="4"/>
       <c r="M119" s="3"/>
@@ -14300,7 +14300,7 @@
         <v>1442</v>
       </c>
       <c r="K120" s="3">
-        <v>1023</v>
+        <v>1462</v>
       </c>
       <c r="L120" s="4"/>
       <c r="M120" s="3"/>
@@ -14351,7 +14351,7 @@
         <v>1442</v>
       </c>
       <c r="K121" s="3">
-        <v>1061</v>
+        <v>1516</v>
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="3"/>
@@ -14402,7 +14402,7 @@
         <v>1442</v>
       </c>
       <c r="K122" s="3">
-        <v>1099</v>
+        <v>1570</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="3"/>
@@ -14453,7 +14453,7 @@
         <v>1442</v>
       </c>
       <c r="K123" s="3">
-        <v>1137</v>
+        <v>1625</v>
       </c>
       <c r="L123" s="4"/>
       <c r="M123" s="3"/>
@@ -14514,7 +14514,7 @@
         <v>1442</v>
       </c>
       <c r="M124" s="3">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="N124" s="4" t="s">
         <v>1208</v>
@@ -14569,7 +14569,7 @@
         <v>1442</v>
       </c>
       <c r="M125" s="3">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="N125" s="4" t="s">
         <v>1208</v>
@@ -14624,7 +14624,7 @@
         <v>1442</v>
       </c>
       <c r="M126" s="3">
-        <v>384</v>
+        <v>548</v>
       </c>
       <c r="N126" s="4" t="s">
         <v>1208</v>
@@ -14679,7 +14679,7 @@
         <v>1442</v>
       </c>
       <c r="M127" s="3">
-        <v>512</v>
+        <v>731</v>
       </c>
       <c r="N127" s="4" t="s">
         <v>1208</v>
@@ -14734,7 +14734,7 @@
         <v>1442</v>
       </c>
       <c r="M128" s="3">
-        <v>640</v>
+        <v>914</v>
       </c>
       <c r="N128" s="4" t="s">
         <v>1208</v>
@@ -14793,7 +14793,7 @@
         <v>1442</v>
       </c>
       <c r="M129" s="3">
-        <v>768</v>
+        <v>1097</v>
       </c>
       <c r="N129" s="4" t="s">
         <v>1208</v>
@@ -14848,7 +14848,7 @@
         <v>1442</v>
       </c>
       <c r="M130" s="3">
-        <v>896</v>
+        <v>1280</v>
       </c>
       <c r="N130" s="4" t="s">
         <v>1208</v>
@@ -14903,7 +14903,7 @@
         <v>1442</v>
       </c>
       <c r="M131" s="3">
-        <v>1024</v>
+        <v>1462</v>
       </c>
       <c r="N131" s="4" t="s">
         <v>1208</v>
@@ -14958,7 +14958,7 @@
         <v>1442</v>
       </c>
       <c r="M132" s="3">
-        <v>1152</v>
+        <v>1645</v>
       </c>
       <c r="N132" s="4" t="s">
         <v>1208</v>
@@ -15013,7 +15013,7 @@
         <v>1442</v>
       </c>
       <c r="M133" s="3">
-        <v>1280</v>
+        <v>1828</v>
       </c>
       <c r="N133" s="4" t="s">
         <v>1208</v>
@@ -15072,7 +15072,7 @@
         <v>1442</v>
       </c>
       <c r="M134" s="3">
-        <v>1407</v>
+        <v>2011</v>
       </c>
       <c r="N134" s="4" t="s">
         <v>1208</v>
@@ -15127,7 +15127,7 @@
         <v>1442</v>
       </c>
       <c r="M135" s="3">
-        <v>1535</v>
+        <v>2194</v>
       </c>
       <c r="N135" s="4" t="s">
         <v>1208</v>
@@ -15182,7 +15182,7 @@
         <v>1442</v>
       </c>
       <c r="M136" s="3">
-        <v>1663</v>
+        <v>2376</v>
       </c>
       <c r="N136" s="4" t="s">
         <v>1208</v>
@@ -15237,7 +15237,7 @@
         <v>1442</v>
       </c>
       <c r="M137" s="3">
-        <v>1791</v>
+        <v>2559</v>
       </c>
       <c r="N137" s="4" t="s">
         <v>1208</v>
@@ -15292,7 +15292,7 @@
         <v>1442</v>
       </c>
       <c r="M138" s="3">
-        <v>1919</v>
+        <v>2742</v>
       </c>
       <c r="N138" s="4" t="s">
         <v>1208</v>
@@ -15351,7 +15351,7 @@
         <v>1442</v>
       </c>
       <c r="M139" s="3">
-        <v>2047</v>
+        <v>2925</v>
       </c>
       <c r="N139" s="4" t="s">
         <v>1208</v>
@@ -15406,7 +15406,7 @@
         <v>1442</v>
       </c>
       <c r="M140" s="3">
-        <v>2175</v>
+        <v>3108</v>
       </c>
       <c r="N140" s="4" t="s">
         <v>1208</v>
@@ -15461,7 +15461,7 @@
         <v>1442</v>
       </c>
       <c r="M141" s="3">
-        <v>2303</v>
+        <v>3290</v>
       </c>
       <c r="N141" s="4" t="s">
         <v>1208</v>
@@ -15516,7 +15516,7 @@
         <v>1442</v>
       </c>
       <c r="M142" s="3">
-        <v>2431</v>
+        <v>3473</v>
       </c>
       <c r="N142" s="4" t="s">
         <v>1208</v>
@@ -15571,7 +15571,7 @@
         <v>1442</v>
       </c>
       <c r="M143" s="3">
-        <v>2559</v>
+        <v>3656</v>
       </c>
       <c r="N143" s="4" t="s">
         <v>1208</v>
@@ -15630,7 +15630,7 @@
         <v>1442</v>
       </c>
       <c r="M144" s="3">
-        <v>2687</v>
+        <v>3839</v>
       </c>
       <c r="N144" s="4" t="s">
         <v>1208</v>
@@ -15685,7 +15685,7 @@
         <v>1442</v>
       </c>
       <c r="M145" s="3">
-        <v>2815</v>
+        <v>4022</v>
       </c>
       <c r="N145" s="4" t="s">
         <v>1208</v>
@@ -15740,7 +15740,7 @@
         <v>1442</v>
       </c>
       <c r="M146" s="3">
-        <v>2943</v>
+        <v>4204</v>
       </c>
       <c r="N146" s="4" t="s">
         <v>1208</v>
@@ -15795,7 +15795,7 @@
         <v>1442</v>
       </c>
       <c r="M147" s="3">
-        <v>3071</v>
+        <v>4387</v>
       </c>
       <c r="N147" s="4" t="s">
         <v>1208</v>
@@ -15850,7 +15850,7 @@
         <v>1442</v>
       </c>
       <c r="M148" s="3">
-        <v>3199</v>
+        <v>4570</v>
       </c>
       <c r="N148" s="4" t="s">
         <v>1208</v>
@@ -15909,7 +15909,7 @@
         <v>1442</v>
       </c>
       <c r="M149" s="3">
-        <v>3327</v>
+        <v>4753</v>
       </c>
       <c r="N149" s="4" t="s">
         <v>1208</v>
@@ -15964,7 +15964,7 @@
         <v>1442</v>
       </c>
       <c r="M150" s="3">
-        <v>3455</v>
+        <v>4936</v>
       </c>
       <c r="N150" s="4" t="s">
         <v>1208</v>
@@ -16019,7 +16019,7 @@
         <v>1442</v>
       </c>
       <c r="M151" s="3">
-        <v>3583</v>
+        <v>5118</v>
       </c>
       <c r="N151" s="4" t="s">
         <v>1208</v>
@@ -16074,7 +16074,7 @@
         <v>1442</v>
       </c>
       <c r="M152" s="3">
-        <v>3711</v>
+        <v>5301</v>
       </c>
       <c r="N152" s="4" t="s">
         <v>1208</v>
@@ -16129,7 +16129,7 @@
         <v>1442</v>
       </c>
       <c r="M153" s="3">
-        <v>3839</v>
+        <v>5484</v>
       </c>
       <c r="N153" s="4" t="s">
         <v>1208</v>
@@ -16188,7 +16188,7 @@
         <v>1442</v>
       </c>
       <c r="M154" s="3">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="N154" s="4" t="s">
         <v>1208</v>
@@ -16243,7 +16243,7 @@
         <v>1442</v>
       </c>
       <c r="M155" s="3">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="N155" s="4" t="s">
         <v>1208</v>
@@ -16298,7 +16298,7 @@
         <v>1442</v>
       </c>
       <c r="M156" s="3">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="N156" s="4" t="s">
         <v>1208</v>
@@ -16353,7 +16353,7 @@
         <v>1442</v>
       </c>
       <c r="M157" s="3">
-        <v>303</v>
+        <v>433</v>
       </c>
       <c r="N157" s="4" t="s">
         <v>1208</v>
@@ -16408,7 +16408,7 @@
         <v>1442</v>
       </c>
       <c r="M158" s="3">
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="N158" s="4" t="s">
         <v>1208</v>
@@ -16467,7 +16467,7 @@
         <v>1442</v>
       </c>
       <c r="M159" s="3">
-        <v>455</v>
+        <v>650</v>
       </c>
       <c r="N159" s="4" t="s">
         <v>1208</v>
@@ -16522,7 +16522,7 @@
         <v>1442</v>
       </c>
       <c r="M160" s="3">
-        <v>531</v>
+        <v>758</v>
       </c>
       <c r="N160" s="4" t="s">
         <v>1208</v>
@@ -16577,7 +16577,7 @@
         <v>1442</v>
       </c>
       <c r="M161" s="3">
-        <v>606</v>
+        <v>866</v>
       </c>
       <c r="N161" s="4" t="s">
         <v>1208</v>
@@ -16632,7 +16632,7 @@
         <v>1442</v>
       </c>
       <c r="M162" s="3">
-        <v>682</v>
+        <v>975</v>
       </c>
       <c r="N162" s="4" t="s">
         <v>1208</v>
@@ -16687,7 +16687,7 @@
         <v>1442</v>
       </c>
       <c r="M163" s="3">
-        <v>758</v>
+        <v>1083</v>
       </c>
       <c r="N163" s="4" t="s">
         <v>1208</v>
@@ -16746,7 +16746,7 @@
         <v>1442</v>
       </c>
       <c r="M164" s="3">
-        <v>834</v>
+        <v>1191</v>
       </c>
       <c r="N164" s="4" t="s">
         <v>1208</v>
@@ -16801,7 +16801,7 @@
         <v>1442</v>
       </c>
       <c r="M165" s="3">
-        <v>910</v>
+        <v>1300</v>
       </c>
       <c r="N165" s="4" t="s">
         <v>1208</v>
@@ -16856,7 +16856,7 @@
         <v>1442</v>
       </c>
       <c r="M166" s="3">
-        <v>985</v>
+        <v>1408</v>
       </c>
       <c r="N166" s="4" t="s">
         <v>1208</v>
@@ -16911,7 +16911,7 @@
         <v>1442</v>
       </c>
       <c r="M167" s="3">
-        <v>1061</v>
+        <v>1516</v>
       </c>
       <c r="N167" s="4" t="s">
         <v>1208</v>
@@ -16966,7 +16966,7 @@
         <v>1442</v>
       </c>
       <c r="M168" s="3">
-        <v>1137</v>
+        <v>1625</v>
       </c>
       <c r="N168" s="4" t="s">
         <v>1208</v>
@@ -17025,7 +17025,7 @@
         <v>1442</v>
       </c>
       <c r="M169" s="3">
-        <v>1213</v>
+        <v>1733</v>
       </c>
       <c r="N169" s="4" t="s">
         <v>1208</v>
@@ -17080,7 +17080,7 @@
         <v>1442</v>
       </c>
       <c r="M170" s="3">
-        <v>1289</v>
+        <v>1841</v>
       </c>
       <c r="N170" s="4" t="s">
         <v>1208</v>
@@ -17135,7 +17135,7 @@
         <v>1442</v>
       </c>
       <c r="M171" s="3">
-        <v>1364</v>
+        <v>1949</v>
       </c>
       <c r="N171" s="4" t="s">
         <v>1208</v>
@@ -17190,7 +17190,7 @@
         <v>1442</v>
       </c>
       <c r="M172" s="3">
-        <v>1440</v>
+        <v>2058</v>
       </c>
       <c r="N172" s="4" t="s">
         <v>1208</v>
@@ -17245,7 +17245,7 @@
         <v>1442</v>
       </c>
       <c r="M173" s="3">
-        <v>1516</v>
+        <v>2166</v>
       </c>
       <c r="N173" s="4" t="s">
         <v>1208</v>
@@ -17304,7 +17304,7 @@
         <v>1442</v>
       </c>
       <c r="M174" s="3">
-        <v>1592</v>
+        <v>2274</v>
       </c>
       <c r="N174" s="4" t="s">
         <v>1208</v>
@@ -17359,7 +17359,7 @@
         <v>1442</v>
       </c>
       <c r="M175" s="3">
-        <v>1668</v>
+        <v>2383</v>
       </c>
       <c r="N175" s="4" t="s">
         <v>1208</v>
@@ -17414,7 +17414,7 @@
         <v>1442</v>
       </c>
       <c r="M176" s="3">
-        <v>1743</v>
+        <v>2491</v>
       </c>
       <c r="N176" s="4" t="s">
         <v>1208</v>
@@ -17469,7 +17469,7 @@
         <v>1442</v>
       </c>
       <c r="M177" s="3">
-        <v>1819</v>
+        <v>2599</v>
       </c>
       <c r="N177" s="4" t="s">
         <v>1208</v>
@@ -17524,7 +17524,7 @@
         <v>1442</v>
       </c>
       <c r="M178" s="3">
-        <v>1895</v>
+        <v>2708</v>
       </c>
       <c r="N178" s="4" t="s">
         <v>1208</v>
@@ -17583,7 +17583,7 @@
         <v>1442</v>
       </c>
       <c r="M179" s="3">
-        <v>1971</v>
+        <v>2816</v>
       </c>
       <c r="N179" s="4" t="s">
         <v>1208</v>
@@ -17638,7 +17638,7 @@
         <v>1442</v>
       </c>
       <c r="M180" s="3">
-        <v>2047</v>
+        <v>2924</v>
       </c>
       <c r="N180" s="4" t="s">
         <v>1208</v>
@@ -17693,7 +17693,7 @@
         <v>1442</v>
       </c>
       <c r="M181" s="3">
-        <v>2122</v>
+        <v>3032</v>
       </c>
       <c r="N181" s="4" t="s">
         <v>1208</v>
@@ -17748,7 +17748,7 @@
         <v>1442</v>
       </c>
       <c r="M182" s="3">
-        <v>2198</v>
+        <v>3141</v>
       </c>
       <c r="N182" s="4" t="s">
         <v>1208</v>
@@ -17803,7 +17803,7 @@
         <v>1442</v>
       </c>
       <c r="M183" s="3">
-        <v>2274</v>
+        <v>3249</v>
       </c>
       <c r="N183" s="4" t="s">
         <v>1208</v>
@@ -17862,7 +17862,7 @@
         <v>1442</v>
       </c>
       <c r="M184" s="3">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="N184" s="4" t="s">
         <v>141</v>
@@ -17917,7 +17917,7 @@
         <v>1442</v>
       </c>
       <c r="M185" s="3">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="N185" s="4" t="s">
         <v>141</v>
@@ -17972,7 +17972,7 @@
         <v>1442</v>
       </c>
       <c r="M186" s="3">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="N186" s="4" t="s">
         <v>141</v>
@@ -18027,7 +18027,7 @@
         <v>1442</v>
       </c>
       <c r="M187" s="3">
-        <v>322</v>
+        <v>460</v>
       </c>
       <c r="N187" s="4" t="s">
         <v>141</v>
@@ -18082,7 +18082,7 @@
         <v>1442</v>
       </c>
       <c r="M188" s="3">
-        <v>403</v>
+        <v>576</v>
       </c>
       <c r="N188" s="4" t="s">
         <v>141</v>
@@ -18141,7 +18141,7 @@
         <v>1442</v>
       </c>
       <c r="M189" s="3">
-        <v>483</v>
+        <v>691</v>
       </c>
       <c r="N189" s="4" t="s">
         <v>141</v>
@@ -18196,7 +18196,7 @@
         <v>1442</v>
       </c>
       <c r="M190" s="3">
-        <v>564</v>
+        <v>806</v>
       </c>
       <c r="N190" s="4" t="s">
         <v>141</v>
@@ -18251,7 +18251,7 @@
         <v>1442</v>
       </c>
       <c r="M191" s="3">
-        <v>644</v>
+        <v>921</v>
       </c>
       <c r="N191" s="4" t="s">
         <v>141</v>
@@ -18306,7 +18306,7 @@
         <v>1442</v>
       </c>
       <c r="M192" s="3">
-        <v>725</v>
+        <v>1036</v>
       </c>
       <c r="N192" s="4" t="s">
         <v>141</v>
@@ -18361,7 +18361,7 @@
         <v>1442</v>
       </c>
       <c r="M193" s="3">
-        <v>806</v>
+        <v>1151</v>
       </c>
       <c r="N193" s="4" t="s">
         <v>141</v>
@@ -18420,7 +18420,7 @@
         <v>1442</v>
       </c>
       <c r="M194" s="3">
-        <v>886</v>
+        <v>1266</v>
       </c>
       <c r="N194" s="4" t="s">
         <v>141</v>
@@ -18475,7 +18475,7 @@
         <v>1442</v>
       </c>
       <c r="M195" s="3">
-        <v>967</v>
+        <v>1381</v>
       </c>
       <c r="N195" s="4" t="s">
         <v>141</v>
@@ -18530,7 +18530,7 @@
         <v>1442</v>
       </c>
       <c r="M196" s="3">
-        <v>1047</v>
+        <v>1496</v>
       </c>
       <c r="N196" s="4" t="s">
         <v>141</v>
@@ -18585,7 +18585,7 @@
         <v>1442</v>
       </c>
       <c r="M197" s="3">
-        <v>1128</v>
+        <v>1611</v>
       </c>
       <c r="N197" s="4" t="s">
         <v>141</v>
@@ -18640,7 +18640,7 @@
         <v>1442</v>
       </c>
       <c r="M198" s="3">
-        <v>1208</v>
+        <v>1727</v>
       </c>
       <c r="N198" s="4" t="s">
         <v>141</v>
@@ -18699,7 +18699,7 @@
         <v>1442</v>
       </c>
       <c r="M199" s="3">
-        <v>1289</v>
+        <v>1842</v>
       </c>
       <c r="N199" s="4" t="s">
         <v>141</v>
@@ -18754,7 +18754,7 @@
         <v>1442</v>
       </c>
       <c r="M200" s="3">
-        <v>1369</v>
+        <v>1957</v>
       </c>
       <c r="N200" s="4" t="s">
         <v>141</v>
@@ -18809,7 +18809,7 @@
         <v>1442</v>
       </c>
       <c r="M201" s="3">
-        <v>1450</v>
+        <v>2072</v>
       </c>
       <c r="N201" s="4" t="s">
         <v>141</v>
@@ -18864,7 +18864,7 @@
         <v>1442</v>
       </c>
       <c r="M202" s="3">
-        <v>1530</v>
+        <v>2187</v>
       </c>
       <c r="N202" s="4" t="s">
         <v>141</v>
@@ -18919,7 +18919,7 @@
         <v>1442</v>
       </c>
       <c r="M203" s="3">
-        <v>1611</v>
+        <v>2302</v>
       </c>
       <c r="N203" s="4" t="s">
         <v>141</v>
@@ -18978,7 +18978,7 @@
         <v>1442</v>
       </c>
       <c r="M204" s="3">
-        <v>1692</v>
+        <v>2417</v>
       </c>
       <c r="N204" s="4" t="s">
         <v>141</v>
@@ -19033,7 +19033,7 @@
         <v>1442</v>
       </c>
       <c r="M205" s="3">
-        <v>1772</v>
+        <v>2532</v>
       </c>
       <c r="N205" s="4" t="s">
         <v>141</v>
@@ -19088,7 +19088,7 @@
         <v>1442</v>
       </c>
       <c r="M206" s="3">
-        <v>1853</v>
+        <v>2647</v>
       </c>
       <c r="N206" s="4" t="s">
         <v>141</v>
@@ -19143,7 +19143,7 @@
         <v>1442</v>
       </c>
       <c r="M207" s="3">
-        <v>1933</v>
+        <v>2762</v>
       </c>
       <c r="N207" s="4" t="s">
         <v>141</v>
@@ -19198,7 +19198,7 @@
         <v>1442</v>
       </c>
       <c r="M208" s="3">
-        <v>2014</v>
+        <v>2878</v>
       </c>
       <c r="N208" s="4" t="s">
         <v>141</v>
@@ -19257,7 +19257,7 @@
         <v>1442</v>
       </c>
       <c r="M209" s="3">
-        <v>2094</v>
+        <v>2993</v>
       </c>
       <c r="N209" s="4" t="s">
         <v>141</v>
@@ -19312,7 +19312,7 @@
         <v>1442</v>
       </c>
       <c r="M210" s="3">
-        <v>2175</v>
+        <v>3108</v>
       </c>
       <c r="N210" s="4" t="s">
         <v>141</v>
@@ -19367,7 +19367,7 @@
         <v>1442</v>
       </c>
       <c r="M211" s="3">
-        <v>2255</v>
+        <v>3223</v>
       </c>
       <c r="N211" s="4" t="s">
         <v>141</v>
@@ -19422,7 +19422,7 @@
         <v>1442</v>
       </c>
       <c r="M212" s="3">
-        <v>2336</v>
+        <v>3338</v>
       </c>
       <c r="N212" s="4" t="s">
         <v>141</v>
@@ -19477,7 +19477,7 @@
         <v>1442</v>
       </c>
       <c r="M213" s="3">
-        <v>2417</v>
+        <v>3453</v>
       </c>
       <c r="N213" s="4" t="s">
         <v>141</v>
@@ -22601,11 +22601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O903"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I881" sqref="I881"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:O903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24204,7 +24204,7 @@
         <v>1442</v>
       </c>
       <c r="O34" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24251,7 +24251,7 @@
         <v>1442</v>
       </c>
       <c r="O35" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24298,7 +24298,7 @@
         <v>1442</v>
       </c>
       <c r="O36" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24345,7 +24345,7 @@
         <v>1442</v>
       </c>
       <c r="O37" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24392,7 +24392,7 @@
         <v>1442</v>
       </c>
       <c r="O38" s="3">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24439,7 +24439,7 @@
         <v>1442</v>
       </c>
       <c r="O39" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24486,7 +24486,7 @@
         <v>1442</v>
       </c>
       <c r="O40" s="3">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24533,7 +24533,7 @@
         <v>1442</v>
       </c>
       <c r="O41" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24580,7 +24580,7 @@
         <v>1442</v>
       </c>
       <c r="O42" s="3">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24627,7 +24627,7 @@
         <v>1442</v>
       </c>
       <c r="O43" s="3">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24674,7 +24674,7 @@
         <v>1442</v>
       </c>
       <c r="O44" s="3">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24721,7 +24721,7 @@
         <v>1442</v>
       </c>
       <c r="O45" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24768,7 +24768,7 @@
         <v>1442</v>
       </c>
       <c r="O46" s="3">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24815,7 +24815,7 @@
         <v>1442</v>
       </c>
       <c r="O47" s="3">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24862,7 +24862,7 @@
         <v>1442</v>
       </c>
       <c r="O48" s="3">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24909,7 +24909,7 @@
         <v>1442</v>
       </c>
       <c r="O49" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -24956,7 +24956,7 @@
         <v>1442</v>
       </c>
       <c r="O50" s="3">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25003,7 +25003,7 @@
         <v>1442</v>
       </c>
       <c r="O51" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25050,7 +25050,7 @@
         <v>1442</v>
       </c>
       <c r="O52" s="3">
-        <v>130</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25097,7 +25097,7 @@
         <v>1442</v>
       </c>
       <c r="O53" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25144,7 +25144,7 @@
         <v>1442</v>
       </c>
       <c r="O54" s="3">
-        <v>144</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25191,7 +25191,7 @@
         <v>1442</v>
       </c>
       <c r="O55" s="3">
-        <v>150</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25238,7 +25238,7 @@
         <v>1442</v>
       </c>
       <c r="O56" s="3">
-        <v>157</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25285,7 +25285,7 @@
         <v>1442</v>
       </c>
       <c r="O57" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25332,7 +25332,7 @@
         <v>1442</v>
       </c>
       <c r="O58" s="3">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25379,7 +25379,7 @@
         <v>1442</v>
       </c>
       <c r="O59" s="3">
-        <v>178</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25426,7 +25426,7 @@
         <v>1442</v>
       </c>
       <c r="O60" s="3">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25473,7 +25473,7 @@
         <v>1442</v>
       </c>
       <c r="O61" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25520,7 +25520,7 @@
         <v>1442</v>
       </c>
       <c r="O62" s="3">
-        <v>198</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -25567,7 +25567,7 @@
         <v>1442</v>
       </c>
       <c r="O63" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27006,7 +27006,7 @@
         <v>1442</v>
       </c>
       <c r="O94" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27053,7 +27053,7 @@
         <v>1442</v>
       </c>
       <c r="O95" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27100,7 +27100,7 @@
         <v>1442</v>
       </c>
       <c r="O96" s="3">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27147,7 +27147,7 @@
         <v>1442</v>
       </c>
       <c r="O97" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27194,7 +27194,7 @@
         <v>1442</v>
       </c>
       <c r="O98" s="3">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27241,7 +27241,7 @@
         <v>1442</v>
       </c>
       <c r="O99" s="3">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27288,7 +27288,7 @@
         <v>1442</v>
       </c>
       <c r="O100" s="3">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27335,7 +27335,7 @@
         <v>1442</v>
       </c>
       <c r="O101" s="3">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27382,7 +27382,7 @@
         <v>1442</v>
       </c>
       <c r="O102" s="3">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27429,7 +27429,7 @@
         <v>1442</v>
       </c>
       <c r="O103" s="3">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27476,7 +27476,7 @@
         <v>1442</v>
       </c>
       <c r="O104" s="3">
-        <v>125</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27523,7 +27523,7 @@
         <v>1442</v>
       </c>
       <c r="O105" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27570,7 +27570,7 @@
         <v>1442</v>
       </c>
       <c r="O106" s="3">
-        <v>148</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27617,7 +27617,7 @@
         <v>1442</v>
       </c>
       <c r="O107" s="3">
-        <v>160</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27664,7 +27664,7 @@
         <v>1442</v>
       </c>
       <c r="O108" s="3">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27711,7 +27711,7 @@
         <v>1442</v>
       </c>
       <c r="O109" s="3">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27758,7 +27758,7 @@
         <v>1442</v>
       </c>
       <c r="O110" s="3">
-        <v>194</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27805,7 +27805,7 @@
         <v>1442</v>
       </c>
       <c r="O111" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27852,7 +27852,7 @@
         <v>1442</v>
       </c>
       <c r="O112" s="3">
-        <v>216</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27899,7 +27899,7 @@
         <v>1442</v>
       </c>
       <c r="O113" s="3">
-        <v>228</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27946,7 +27946,7 @@
         <v>1442</v>
       </c>
       <c r="O114" s="3">
-        <v>239</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -27993,7 +27993,7 @@
         <v>1442</v>
       </c>
       <c r="O115" s="3">
-        <v>251</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28040,7 +28040,7 @@
         <v>1442</v>
       </c>
       <c r="O116" s="3">
-        <v>262</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28087,7 +28087,7 @@
         <v>1442</v>
       </c>
       <c r="O117" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28134,7 +28134,7 @@
         <v>1442</v>
       </c>
       <c r="O118" s="3">
-        <v>285</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28181,7 +28181,7 @@
         <v>1442</v>
       </c>
       <c r="O119" s="3">
-        <v>296</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28228,7 +28228,7 @@
         <v>1442</v>
       </c>
       <c r="O120" s="3">
-        <v>308</v>
+        <v>440</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28275,7 +28275,7 @@
         <v>1442</v>
       </c>
       <c r="O121" s="3">
-        <v>319</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28322,7 +28322,7 @@
         <v>1442</v>
       </c>
       <c r="O122" s="3">
-        <v>330</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -28369,7 +28369,7 @@
         <v>1442</v>
       </c>
       <c r="O123" s="3">
-        <v>342</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -29810,7 +29810,7 @@
         <v>1442</v>
       </c>
       <c r="O154" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -29857,7 +29857,7 @@
         <v>1442</v>
       </c>
       <c r="O155" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -29904,7 +29904,7 @@
         <v>1442</v>
       </c>
       <c r="O156" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -29951,7 +29951,7 @@
         <v>1442</v>
       </c>
       <c r="O157" s="3">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -29998,7 +29998,7 @@
         <v>1442</v>
       </c>
       <c r="O158" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30045,7 +30045,7 @@
         <v>1442</v>
       </c>
       <c r="O159" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30092,7 +30092,7 @@
         <v>1442</v>
       </c>
       <c r="O160" s="3">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30139,7 +30139,7 @@
         <v>1442</v>
       </c>
       <c r="O161" s="3">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30186,7 +30186,7 @@
         <v>1442</v>
       </c>
       <c r="O162" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="163" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30233,7 +30233,7 @@
         <v>1442</v>
       </c>
       <c r="O163" s="3">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30280,7 +30280,7 @@
         <v>1442</v>
       </c>
       <c r="O164" s="3">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30327,7 +30327,7 @@
         <v>1442</v>
       </c>
       <c r="O165" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30374,7 +30374,7 @@
         <v>1442</v>
       </c>
       <c r="O166" s="3">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30421,7 +30421,7 @@
         <v>1442</v>
       </c>
       <c r="O167" s="3">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30468,7 +30468,7 @@
         <v>1442</v>
       </c>
       <c r="O168" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30515,7 +30515,7 @@
         <v>1442</v>
       </c>
       <c r="O169" s="3">
-        <v>146</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30562,7 +30562,7 @@
         <v>1442</v>
       </c>
       <c r="O170" s="3">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30609,7 +30609,7 @@
         <v>1442</v>
       </c>
       <c r="O171" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30656,7 +30656,7 @@
         <v>1442</v>
       </c>
       <c r="O172" s="3">
-        <v>173</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30703,7 +30703,7 @@
         <v>1442</v>
       </c>
       <c r="O173" s="3">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30750,7 +30750,7 @@
         <v>1442</v>
       </c>
       <c r="O174" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30797,7 +30797,7 @@
         <v>1442</v>
       </c>
       <c r="O175" s="3">
-        <v>201</v>
+        <v>286</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30844,7 +30844,7 @@
         <v>1442</v>
       </c>
       <c r="O176" s="3">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30891,7 +30891,7 @@
         <v>1442</v>
       </c>
       <c r="O177" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="178" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30938,7 +30938,7 @@
         <v>1442</v>
       </c>
       <c r="O178" s="3">
-        <v>228</v>
+        <v>326</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -30985,7 +30985,7 @@
         <v>1442</v>
       </c>
       <c r="O179" s="3">
-        <v>237</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31032,7 +31032,7 @@
         <v>1442</v>
       </c>
       <c r="O180" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31079,7 +31079,7 @@
         <v>1442</v>
       </c>
       <c r="O181" s="3">
-        <v>255</v>
+        <v>365</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31126,7 +31126,7 @@
         <v>1442</v>
       </c>
       <c r="O182" s="3">
-        <v>264</v>
+        <v>378</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31173,7 +31173,7 @@
         <v>1442</v>
       </c>
       <c r="O183" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31212,7 +31212,7 @@
         <v>1442</v>
       </c>
       <c r="O184" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31259,7 +31259,7 @@
         <v>1442</v>
       </c>
       <c r="O185" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31306,7 +31306,7 @@
         <v>1442</v>
       </c>
       <c r="O186" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31353,7 +31353,7 @@
         <v>1442</v>
       </c>
       <c r="O187" s="3">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31400,7 +31400,7 @@
         <v>1442</v>
       </c>
       <c r="O188" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31447,7 +31447,7 @@
         <v>1442</v>
       </c>
       <c r="O189" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31494,7 +31494,7 @@
         <v>1442</v>
       </c>
       <c r="O190" s="3">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31541,7 +31541,7 @@
         <v>1442</v>
       </c>
       <c r="O191" s="3">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31588,7 +31588,7 @@
         <v>1442</v>
       </c>
       <c r="O192" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31635,7 +31635,7 @@
         <v>1442</v>
       </c>
       <c r="O193" s="3">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31682,7 +31682,7 @@
         <v>1442</v>
       </c>
       <c r="O194" s="3">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31729,7 +31729,7 @@
         <v>1442</v>
       </c>
       <c r="O195" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="196" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31776,7 +31776,7 @@
         <v>1442</v>
       </c>
       <c r="O196" s="3">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="197" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31823,7 +31823,7 @@
         <v>1442</v>
       </c>
       <c r="O197" s="3">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31870,7 +31870,7 @@
         <v>1442</v>
       </c>
       <c r="O198" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31917,7 +31917,7 @@
         <v>1442</v>
       </c>
       <c r="O199" s="3">
-        <v>146</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -31964,7 +31964,7 @@
         <v>1442</v>
       </c>
       <c r="O200" s="3">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32011,7 +32011,7 @@
         <v>1442</v>
       </c>
       <c r="O201" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32058,7 +32058,7 @@
         <v>1442</v>
       </c>
       <c r="O202" s="3">
-        <v>173</v>
+        <v>247</v>
       </c>
     </row>
     <row r="203" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32105,7 +32105,7 @@
         <v>1442</v>
       </c>
       <c r="O203" s="3">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="204" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32152,7 +32152,7 @@
         <v>1442</v>
       </c>
       <c r="O204" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32199,7 +32199,7 @@
         <v>1442</v>
       </c>
       <c r="O205" s="3">
-        <v>201</v>
+        <v>286</v>
       </c>
     </row>
     <row r="206" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32246,7 +32246,7 @@
         <v>1442</v>
       </c>
       <c r="O206" s="3">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="207" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32293,7 +32293,7 @@
         <v>1442</v>
       </c>
       <c r="O207" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32340,7 +32340,7 @@
         <v>1442</v>
       </c>
       <c r="O208" s="3">
-        <v>228</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32387,7 +32387,7 @@
         <v>1442</v>
       </c>
       <c r="O209" s="3">
-        <v>237</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32434,7 +32434,7 @@
         <v>1442</v>
       </c>
       <c r="O210" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="211" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32481,7 +32481,7 @@
         <v>1442</v>
       </c>
       <c r="O211" s="3">
-        <v>255</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32528,7 +32528,7 @@
         <v>1442</v>
       </c>
       <c r="O212" s="3">
-        <v>264</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32575,7 +32575,7 @@
         <v>1442</v>
       </c>
       <c r="O213" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32614,7 +32614,7 @@
         <v>1442</v>
       </c>
       <c r="O214" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32661,7 +32661,7 @@
         <v>1442</v>
       </c>
       <c r="O215" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32708,7 +32708,7 @@
         <v>1442</v>
       </c>
       <c r="O216" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32755,7 +32755,7 @@
         <v>1442</v>
       </c>
       <c r="O217" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32802,7 +32802,7 @@
         <v>1442</v>
       </c>
       <c r="O218" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32849,7 +32849,7 @@
         <v>1442</v>
       </c>
       <c r="O219" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32896,7 +32896,7 @@
         <v>1442</v>
       </c>
       <c r="O220" s="3">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32943,7 +32943,7 @@
         <v>1442</v>
       </c>
       <c r="O221" s="3">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -32990,7 +32990,7 @@
         <v>1442</v>
       </c>
       <c r="O222" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="223" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33037,7 +33037,7 @@
         <v>1442</v>
       </c>
       <c r="O223" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33084,7 +33084,7 @@
         <v>1442</v>
       </c>
       <c r="O224" s="3">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33131,7 +33131,7 @@
         <v>1442</v>
       </c>
       <c r="O225" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33178,7 +33178,7 @@
         <v>1442</v>
       </c>
       <c r="O226" s="3">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33225,7 +33225,7 @@
         <v>1442</v>
       </c>
       <c r="O227" s="3">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33272,7 +33272,7 @@
         <v>1442</v>
       </c>
       <c r="O228" s="3">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33319,7 +33319,7 @@
         <v>1442</v>
       </c>
       <c r="O229" s="3">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33366,7 +33366,7 @@
         <v>1442</v>
       </c>
       <c r="O230" s="3">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33413,7 +33413,7 @@
         <v>1442</v>
       </c>
       <c r="O231" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33460,7 +33460,7 @@
         <v>1442</v>
       </c>
       <c r="O232" s="3">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33507,7 +33507,7 @@
         <v>1442</v>
       </c>
       <c r="O233" s="3">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33554,7 +33554,7 @@
         <v>1442</v>
       </c>
       <c r="O234" s="3">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33601,7 +33601,7 @@
         <v>1442</v>
       </c>
       <c r="O235" s="3">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33648,7 +33648,7 @@
         <v>1442</v>
       </c>
       <c r="O236" s="3">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33695,7 +33695,7 @@
         <v>1442</v>
       </c>
       <c r="O237" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33742,7 +33742,7 @@
         <v>1442</v>
       </c>
       <c r="O238" s="3">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33789,7 +33789,7 @@
         <v>1442</v>
       </c>
       <c r="O239" s="3">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33836,7 +33836,7 @@
         <v>1442</v>
       </c>
       <c r="O240" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33883,7 +33883,7 @@
         <v>1442</v>
       </c>
       <c r="O241" s="3">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33930,7 +33930,7 @@
         <v>1442</v>
       </c>
       <c r="O242" s="3">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -33977,7 +33977,7 @@
         <v>1442</v>
       </c>
       <c r="O243" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35414,7 +35414,7 @@
         <v>1442</v>
       </c>
       <c r="O274" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35461,7 +35461,7 @@
         <v>1442</v>
       </c>
       <c r="O275" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35508,7 +35508,7 @@
         <v>1442</v>
       </c>
       <c r="O276" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="277" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35555,7 +35555,7 @@
         <v>1442</v>
       </c>
       <c r="O277" s="3">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="278" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35602,7 +35602,7 @@
         <v>1442</v>
       </c>
       <c r="O278" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="279" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35649,7 +35649,7 @@
         <v>1442</v>
       </c>
       <c r="O279" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35696,7 +35696,7 @@
         <v>1442</v>
       </c>
       <c r="O280" s="3">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35743,7 +35743,7 @@
         <v>1442</v>
       </c>
       <c r="O281" s="3">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="282" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35790,7 +35790,7 @@
         <v>1442</v>
       </c>
       <c r="O282" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="283" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35837,7 +35837,7 @@
         <v>1442</v>
       </c>
       <c r="O283" s="3">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="284" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35884,7 +35884,7 @@
         <v>1442</v>
       </c>
       <c r="O284" s="3">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="285" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35931,7 +35931,7 @@
         <v>1442</v>
       </c>
       <c r="O285" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="286" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -35978,7 +35978,7 @@
         <v>1442</v>
       </c>
       <c r="O286" s="3">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="287" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36025,7 +36025,7 @@
         <v>1442</v>
       </c>
       <c r="O287" s="3">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="288" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36072,7 +36072,7 @@
         <v>1442</v>
       </c>
       <c r="O288" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="289" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36119,7 +36119,7 @@
         <v>1442</v>
       </c>
       <c r="O289" s="3">
-        <v>146</v>
+        <v>208</v>
       </c>
     </row>
     <row r="290" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36166,7 +36166,7 @@
         <v>1442</v>
       </c>
       <c r="O290" s="3">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
     <row r="291" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36213,7 +36213,7 @@
         <v>1442</v>
       </c>
       <c r="O291" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="292" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36260,7 +36260,7 @@
         <v>1442</v>
       </c>
       <c r="O292" s="3">
-        <v>173</v>
+        <v>247</v>
       </c>
     </row>
     <row r="293" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36307,7 +36307,7 @@
         <v>1442</v>
       </c>
       <c r="O293" s="3">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="294" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36354,7 +36354,7 @@
         <v>1442</v>
       </c>
       <c r="O294" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="295" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36401,7 +36401,7 @@
         <v>1442</v>
       </c>
       <c r="O295" s="3">
-        <v>201</v>
+        <v>286</v>
       </c>
     </row>
     <row r="296" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36448,7 +36448,7 @@
         <v>1442</v>
       </c>
       <c r="O296" s="3">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="297" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36495,7 +36495,7 @@
         <v>1442</v>
       </c>
       <c r="O297" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="298" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36542,7 +36542,7 @@
         <v>1442</v>
       </c>
       <c r="O298" s="3">
-        <v>228</v>
+        <v>326</v>
       </c>
     </row>
     <row r="299" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36589,7 +36589,7 @@
         <v>1442</v>
       </c>
       <c r="O299" s="3">
-        <v>237</v>
+        <v>339</v>
       </c>
     </row>
     <row r="300" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36636,7 +36636,7 @@
         <v>1442</v>
       </c>
       <c r="O300" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="301" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36683,7 +36683,7 @@
         <v>1442</v>
       </c>
       <c r="O301" s="3">
-        <v>255</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36730,7 +36730,7 @@
         <v>1442</v>
       </c>
       <c r="O302" s="3">
-        <v>264</v>
+        <v>378</v>
       </c>
     </row>
     <row r="303" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36777,7 +36777,7 @@
         <v>1442</v>
       </c>
       <c r="O303" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="304" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36816,7 +36816,7 @@
         <v>1442</v>
       </c>
       <c r="O304" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36863,7 +36863,7 @@
         <v>1442</v>
       </c>
       <c r="O305" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36910,7 +36910,7 @@
         <v>1442</v>
       </c>
       <c r="O306" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -36957,7 +36957,7 @@
         <v>1442</v>
       </c>
       <c r="O307" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="308" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37004,7 +37004,7 @@
         <v>1442</v>
       </c>
       <c r="O308" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="309" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37051,7 +37051,7 @@
         <v>1442</v>
       </c>
       <c r="O309" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="310" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37098,7 +37098,7 @@
         <v>1442</v>
       </c>
       <c r="O310" s="3">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="311" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37145,7 +37145,7 @@
         <v>1442</v>
       </c>
       <c r="O311" s="3">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37192,7 +37192,7 @@
         <v>1442</v>
       </c>
       <c r="O312" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37239,7 +37239,7 @@
         <v>1442</v>
       </c>
       <c r="O313" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="314" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37286,7 +37286,7 @@
         <v>1442</v>
       </c>
       <c r="O314" s="3">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="315" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37333,7 +37333,7 @@
         <v>1442</v>
       </c>
       <c r="O315" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="316" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37380,7 +37380,7 @@
         <v>1442</v>
       </c>
       <c r="O316" s="3">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="317" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37427,7 +37427,7 @@
         <v>1442</v>
       </c>
       <c r="O317" s="3">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37474,7 +37474,7 @@
         <v>1442</v>
       </c>
       <c r="O318" s="3">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="319" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37521,7 +37521,7 @@
         <v>1442</v>
       </c>
       <c r="O319" s="3">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37568,7 +37568,7 @@
         <v>1442</v>
       </c>
       <c r="O320" s="3">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="321" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37615,7 +37615,7 @@
         <v>1442</v>
       </c>
       <c r="O321" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="322" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37662,7 +37662,7 @@
         <v>1442</v>
       </c>
       <c r="O322" s="3">
-        <v>87</v>
+        <v>124</v>
       </c>
     </row>
     <row r="323" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37709,7 +37709,7 @@
         <v>1442</v>
       </c>
       <c r="O323" s="3">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="324" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37756,7 +37756,7 @@
         <v>1442</v>
       </c>
       <c r="O324" s="3">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="325" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37803,7 +37803,7 @@
         <v>1442</v>
       </c>
       <c r="O325" s="3">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="326" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37850,7 +37850,7 @@
         <v>1442</v>
       </c>
       <c r="O326" s="3">
-        <v>105</v>
+        <v>150</v>
       </c>
     </row>
     <row r="327" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37897,7 +37897,7 @@
         <v>1442</v>
       </c>
       <c r="O327" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="328" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37944,7 +37944,7 @@
         <v>1442</v>
       </c>
       <c r="O328" s="3">
-        <v>114</v>
+        <v>163</v>
       </c>
     </row>
     <row r="329" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -37991,7 +37991,7 @@
         <v>1442</v>
       </c>
       <c r="O329" s="3">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="330" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -38038,7 +38038,7 @@
         <v>1442</v>
       </c>
       <c r="O330" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="331" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -38085,7 +38085,7 @@
         <v>1442</v>
       </c>
       <c r="O331" s="3">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="332" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -38132,7 +38132,7 @@
         <v>1442</v>
       </c>
       <c r="O332" s="3">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="333" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -38179,7 +38179,7 @@
         <v>1442</v>
       </c>
       <c r="O333" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="334" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41020,7 +41020,7 @@
         <v>1442</v>
       </c>
       <c r="O394" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41067,7 +41067,7 @@
         <v>1442</v>
       </c>
       <c r="O395" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="396" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41114,7 +41114,7 @@
         <v>1442</v>
       </c>
       <c r="O396" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="397" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41161,7 +41161,7 @@
         <v>1442</v>
       </c>
       <c r="O397" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="398" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41208,7 +41208,7 @@
         <v>1442</v>
       </c>
       <c r="O398" s="3">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="399" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41255,7 +41255,7 @@
         <v>1442</v>
       </c>
       <c r="O399" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="400" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41302,7 +41302,7 @@
         <v>1442</v>
       </c>
       <c r="O400" s="3">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="401" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41349,7 +41349,7 @@
         <v>1442</v>
       </c>
       <c r="O401" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="402" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41396,7 +41396,7 @@
         <v>1442</v>
       </c>
       <c r="O402" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="403" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41443,7 +41443,7 @@
         <v>1442</v>
       </c>
       <c r="O403" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="404" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41490,7 +41490,7 @@
         <v>1442</v>
       </c>
       <c r="O404" s="3">
-        <v>150</v>
+        <v>215</v>
       </c>
     </row>
     <row r="405" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41537,7 +41537,7 @@
         <v>1442</v>
       </c>
       <c r="O405" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="406" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41584,7 +41584,7 @@
         <v>1442</v>
       </c>
       <c r="O406" s="3">
-        <v>178</v>
+        <v>254</v>
       </c>
     </row>
     <row r="407" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41631,7 +41631,7 @@
         <v>1442</v>
       </c>
       <c r="O407" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="408" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41678,7 +41678,7 @@
         <v>1442</v>
       </c>
       <c r="O408" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="409" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41725,7 +41725,7 @@
         <v>1442</v>
       </c>
       <c r="O409" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="410" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41772,7 +41772,7 @@
         <v>1442</v>
       </c>
       <c r="O410" s="3">
-        <v>232</v>
+        <v>332</v>
       </c>
     </row>
     <row r="411" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41819,7 +41819,7 @@
         <v>1442</v>
       </c>
       <c r="O411" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="412" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41866,7 +41866,7 @@
         <v>1442</v>
       </c>
       <c r="O412" s="3">
-        <v>260</v>
+        <v>371</v>
       </c>
     </row>
     <row r="413" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41913,7 +41913,7 @@
         <v>1442</v>
       </c>
       <c r="O413" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="414" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -41960,7 +41960,7 @@
         <v>1442</v>
       </c>
       <c r="O414" s="3">
-        <v>287</v>
+        <v>410</v>
       </c>
     </row>
     <row r="415" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42007,7 +42007,7 @@
         <v>1442</v>
       </c>
       <c r="O415" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="416" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42054,7 +42054,7 @@
         <v>1442</v>
       </c>
       <c r="O416" s="3">
-        <v>314</v>
+        <v>449</v>
       </c>
     </row>
     <row r="417" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42101,7 +42101,7 @@
         <v>1442</v>
       </c>
       <c r="O417" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="418" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42148,7 +42148,7 @@
         <v>1442</v>
       </c>
       <c r="O418" s="3">
-        <v>342</v>
+        <v>488</v>
       </c>
     </row>
     <row r="419" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42195,7 +42195,7 @@
         <v>1442</v>
       </c>
       <c r="O419" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="420" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42242,7 +42242,7 @@
         <v>1442</v>
       </c>
       <c r="O420" s="3">
-        <v>369</v>
+        <v>527</v>
       </c>
     </row>
     <row r="421" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42289,7 +42289,7 @@
         <v>1442</v>
       </c>
       <c r="O421" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="422" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42336,7 +42336,7 @@
         <v>1442</v>
       </c>
       <c r="O422" s="3">
-        <v>397</v>
+        <v>566</v>
       </c>
     </row>
     <row r="423" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42383,7 +42383,7 @@
         <v>1442</v>
       </c>
       <c r="O423" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="424" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42420,7 +42420,7 @@
         <v>1442</v>
       </c>
       <c r="O424" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="425" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42467,7 +42467,7 @@
         <v>1442</v>
       </c>
       <c r="O425" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="426" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42514,7 +42514,7 @@
         <v>1442</v>
       </c>
       <c r="O426" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="427" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42561,7 +42561,7 @@
         <v>1442</v>
       </c>
       <c r="O427" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="428" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42608,7 +42608,7 @@
         <v>1442</v>
       </c>
       <c r="O428" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="429" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42655,7 +42655,7 @@
         <v>1442</v>
       </c>
       <c r="O429" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="430" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42702,7 +42702,7 @@
         <v>1442</v>
       </c>
       <c r="O430" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="431" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42749,7 +42749,7 @@
         <v>1442</v>
       </c>
       <c r="O431" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="432" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42796,7 +42796,7 @@
         <v>1442</v>
       </c>
       <c r="O432" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="433" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42843,7 +42843,7 @@
         <v>1442</v>
       </c>
       <c r="O433" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="434" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42890,7 +42890,7 @@
         <v>1442</v>
       </c>
       <c r="O434" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="435" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42937,7 +42937,7 @@
         <v>1442</v>
       </c>
       <c r="O435" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="436" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -42984,7 +42984,7 @@
         <v>1442</v>
       </c>
       <c r="O436" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="437" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43031,7 +43031,7 @@
         <v>1442</v>
       </c>
       <c r="O437" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="438" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43078,7 +43078,7 @@
         <v>1442</v>
       </c>
       <c r="O438" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="439" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43125,7 +43125,7 @@
         <v>1442</v>
       </c>
       <c r="O439" s="3">
-        <v>438</v>
+        <v>625</v>
       </c>
     </row>
     <row r="440" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43172,7 +43172,7 @@
         <v>1442</v>
       </c>
       <c r="O440" s="3">
-        <v>465</v>
+        <v>664</v>
       </c>
     </row>
     <row r="441" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43219,7 +43219,7 @@
         <v>1442</v>
       </c>
       <c r="O441" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="442" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43266,7 +43266,7 @@
         <v>1442</v>
       </c>
       <c r="O442" s="3">
-        <v>520</v>
+        <v>742</v>
       </c>
     </row>
     <row r="443" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43313,7 +43313,7 @@
         <v>1442</v>
       </c>
       <c r="O443" s="3">
-        <v>547</v>
+        <v>781</v>
       </c>
     </row>
     <row r="444" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43360,7 +43360,7 @@
         <v>1442</v>
       </c>
       <c r="O444" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="445" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43407,7 +43407,7 @@
         <v>1442</v>
       </c>
       <c r="O445" s="3">
-        <v>602</v>
+        <v>859</v>
       </c>
     </row>
     <row r="446" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43454,7 +43454,7 @@
         <v>1442</v>
       </c>
       <c r="O446" s="3">
-        <v>629</v>
+        <v>899</v>
       </c>
     </row>
     <row r="447" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43501,7 +43501,7 @@
         <v>1442</v>
       </c>
       <c r="O447" s="3">
-        <v>656</v>
+        <v>938</v>
       </c>
     </row>
     <row r="448" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43548,7 +43548,7 @@
         <v>1442</v>
       </c>
       <c r="O448" s="3">
-        <v>684</v>
+        <v>977</v>
       </c>
     </row>
     <row r="449" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43595,7 +43595,7 @@
         <v>1442</v>
       </c>
       <c r="O449" s="3">
-        <v>711</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="450" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43642,7 +43642,7 @@
         <v>1442</v>
       </c>
       <c r="O450" s="3">
-        <v>738</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="451" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43689,7 +43689,7 @@
         <v>1442</v>
       </c>
       <c r="O451" s="3">
-        <v>766</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="452" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43736,7 +43736,7 @@
         <v>1442</v>
       </c>
       <c r="O452" s="3">
-        <v>793</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="453" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43783,7 +43783,7 @@
         <v>1442</v>
       </c>
       <c r="O453" s="3">
-        <v>820</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="454" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43820,7 +43820,7 @@
         <v>1442</v>
       </c>
       <c r="O454" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="455" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43867,7 +43867,7 @@
         <v>1442</v>
       </c>
       <c r="O455" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="456" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43914,7 +43914,7 @@
         <v>1442</v>
       </c>
       <c r="O456" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="457" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -43961,7 +43961,7 @@
         <v>1442</v>
       </c>
       <c r="O457" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="458" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44008,7 +44008,7 @@
         <v>1442</v>
       </c>
       <c r="O458" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="459" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44055,7 +44055,7 @@
         <v>1442</v>
       </c>
       <c r="O459" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="460" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44102,7 +44102,7 @@
         <v>1442</v>
       </c>
       <c r="O460" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="461" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44149,7 +44149,7 @@
         <v>1442</v>
       </c>
       <c r="O461" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="462" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44196,7 +44196,7 @@
         <v>1442</v>
       </c>
       <c r="O462" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="463" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44243,7 +44243,7 @@
         <v>1442</v>
       </c>
       <c r="O463" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="464" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44290,7 +44290,7 @@
         <v>1442</v>
       </c>
       <c r="O464" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="465" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44337,7 +44337,7 @@
         <v>1442</v>
       </c>
       <c r="O465" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="466" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44384,7 +44384,7 @@
         <v>1442</v>
       </c>
       <c r="O466" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="467" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44431,7 +44431,7 @@
         <v>1442</v>
       </c>
       <c r="O467" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="468" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44478,7 +44478,7 @@
         <v>1442</v>
       </c>
       <c r="O468" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="469" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44525,7 +44525,7 @@
         <v>1442</v>
       </c>
       <c r="O469" s="3">
-        <v>438</v>
+        <v>625</v>
       </c>
     </row>
     <row r="470" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44572,7 +44572,7 @@
         <v>1442</v>
       </c>
       <c r="O470" s="3">
-        <v>465</v>
+        <v>664</v>
       </c>
     </row>
     <row r="471" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44619,7 +44619,7 @@
         <v>1442</v>
       </c>
       <c r="O471" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="472" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44666,7 +44666,7 @@
         <v>1442</v>
       </c>
       <c r="O472" s="3">
-        <v>520</v>
+        <v>742</v>
       </c>
     </row>
     <row r="473" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44713,7 +44713,7 @@
         <v>1442</v>
       </c>
       <c r="O473" s="3">
-        <v>547</v>
+        <v>781</v>
       </c>
     </row>
     <row r="474" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44760,7 +44760,7 @@
         <v>1442</v>
       </c>
       <c r="O474" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="475" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44807,7 +44807,7 @@
         <v>1442</v>
       </c>
       <c r="O475" s="3">
-        <v>602</v>
+        <v>859</v>
       </c>
     </row>
     <row r="476" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44854,7 +44854,7 @@
         <v>1442</v>
       </c>
       <c r="O476" s="3">
-        <v>629</v>
+        <v>899</v>
       </c>
     </row>
     <row r="477" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44901,7 +44901,7 @@
         <v>1442</v>
       </c>
       <c r="O477" s="3">
-        <v>656</v>
+        <v>938</v>
       </c>
     </row>
     <row r="478" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44948,7 +44948,7 @@
         <v>1442</v>
       </c>
       <c r="O478" s="3">
-        <v>684</v>
+        <v>977</v>
       </c>
     </row>
     <row r="479" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -44995,7 +44995,7 @@
         <v>1442</v>
       </c>
       <c r="O479" s="3">
-        <v>711</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="480" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -45042,7 +45042,7 @@
         <v>1442</v>
       </c>
       <c r="O480" s="3">
-        <v>738</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="481" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -45089,7 +45089,7 @@
         <v>1442</v>
       </c>
       <c r="O481" s="3">
-        <v>766</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="482" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -45136,7 +45136,7 @@
         <v>1442</v>
       </c>
       <c r="O482" s="3">
-        <v>793</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="483" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -45183,7 +45183,7 @@
         <v>1442</v>
       </c>
       <c r="O483" s="3">
-        <v>820</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="484" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46622,7 +46622,7 @@
         <v>1442</v>
       </c>
       <c r="O514" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="515" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46669,7 +46669,7 @@
         <v>1442</v>
       </c>
       <c r="O515" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="516" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46716,7 +46716,7 @@
         <v>1442</v>
       </c>
       <c r="O516" s="3">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="517" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46763,7 +46763,7 @@
         <v>1442</v>
       </c>
       <c r="O517" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="518" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46810,7 +46810,7 @@
         <v>1442</v>
       </c>
       <c r="O518" s="3">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="519" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46857,7 +46857,7 @@
         <v>1442</v>
       </c>
       <c r="O519" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="520" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46904,7 +46904,7 @@
         <v>1442</v>
       </c>
       <c r="O520" s="3">
-        <v>144</v>
+        <v>205</v>
       </c>
     </row>
     <row r="521" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46951,7 +46951,7 @@
         <v>1442</v>
       </c>
       <c r="O521" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="522" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -46998,7 +46998,7 @@
         <v>1442</v>
       </c>
       <c r="O522" s="3">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="523" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47045,7 +47045,7 @@
         <v>1442</v>
       </c>
       <c r="O523" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="524" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47092,7 +47092,7 @@
         <v>1442</v>
       </c>
       <c r="O524" s="3">
-        <v>226</v>
+        <v>322</v>
       </c>
     </row>
     <row r="525" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47139,7 +47139,7 @@
         <v>1442</v>
       </c>
       <c r="O525" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="526" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47186,7 +47186,7 @@
         <v>1442</v>
       </c>
       <c r="O526" s="3">
-        <v>267</v>
+        <v>381</v>
       </c>
     </row>
     <row r="527" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47233,7 +47233,7 @@
         <v>1442</v>
       </c>
       <c r="O527" s="3">
-        <v>287</v>
+        <v>410</v>
       </c>
     </row>
     <row r="528" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47280,7 +47280,7 @@
         <v>1442</v>
       </c>
       <c r="O528" s="3">
-        <v>308</v>
+        <v>440</v>
       </c>
     </row>
     <row r="529" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47327,7 +47327,7 @@
         <v>1442</v>
       </c>
       <c r="O529" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="530" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47374,7 +47374,7 @@
         <v>1442</v>
       </c>
       <c r="O530" s="3">
-        <v>349</v>
+        <v>498</v>
       </c>
     </row>
     <row r="531" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47421,7 +47421,7 @@
         <v>1442</v>
       </c>
       <c r="O531" s="3">
-        <v>369</v>
+        <v>527</v>
       </c>
     </row>
     <row r="532" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47468,7 +47468,7 @@
         <v>1442</v>
       </c>
       <c r="O532" s="3">
-        <v>390</v>
+        <v>557</v>
       </c>
     </row>
     <row r="533" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47515,7 +47515,7 @@
         <v>1442</v>
       </c>
       <c r="O533" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="534" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47562,7 +47562,7 @@
         <v>1442</v>
       </c>
       <c r="O534" s="3">
-        <v>431</v>
+        <v>615</v>
       </c>
     </row>
     <row r="535" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47609,7 +47609,7 @@
         <v>1442</v>
       </c>
       <c r="O535" s="3">
-        <v>451</v>
+        <v>645</v>
       </c>
     </row>
     <row r="536" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47656,7 +47656,7 @@
         <v>1442</v>
       </c>
       <c r="O536" s="3">
-        <v>472</v>
+        <v>674</v>
       </c>
     </row>
     <row r="537" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47703,7 +47703,7 @@
         <v>1442</v>
       </c>
       <c r="O537" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="538" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47750,7 +47750,7 @@
         <v>1442</v>
       </c>
       <c r="O538" s="3">
-        <v>513</v>
+        <v>733</v>
       </c>
     </row>
     <row r="539" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47797,7 +47797,7 @@
         <v>1442</v>
       </c>
       <c r="O539" s="3">
-        <v>533</v>
+        <v>762</v>
       </c>
     </row>
     <row r="540" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47844,7 +47844,7 @@
         <v>1442</v>
       </c>
       <c r="O540" s="3">
-        <v>554</v>
+        <v>791</v>
       </c>
     </row>
     <row r="541" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47891,7 +47891,7 @@
         <v>1442</v>
       </c>
       <c r="O541" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="542" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47938,7 +47938,7 @@
         <v>1442</v>
       </c>
       <c r="O542" s="3">
-        <v>595</v>
+        <v>850</v>
       </c>
     </row>
     <row r="543" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -47985,7 +47985,7 @@
         <v>1442</v>
       </c>
       <c r="O543" s="3">
-        <v>615</v>
+        <v>879</v>
       </c>
     </row>
     <row r="544" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49424,7 +49424,7 @@
         <v>1442</v>
       </c>
       <c r="O574" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="575" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49471,7 +49471,7 @@
         <v>1442</v>
       </c>
       <c r="O575" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="576" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49518,7 +49518,7 @@
         <v>1442</v>
       </c>
       <c r="O576" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="577" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49565,7 +49565,7 @@
         <v>1442</v>
       </c>
       <c r="O577" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="578" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49612,7 +49612,7 @@
         <v>1442</v>
       </c>
       <c r="O578" s="3">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="579" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49659,7 +49659,7 @@
         <v>1442</v>
       </c>
       <c r="O579" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="580" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49706,7 +49706,7 @@
         <v>1442</v>
       </c>
       <c r="O580" s="3">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="581" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49753,7 +49753,7 @@
         <v>1442</v>
       </c>
       <c r="O581" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="582" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49800,7 +49800,7 @@
         <v>1442</v>
       </c>
       <c r="O582" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="583" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49847,7 +49847,7 @@
         <v>1442</v>
       </c>
       <c r="O583" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="584" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49894,7 +49894,7 @@
         <v>1442</v>
       </c>
       <c r="O584" s="3">
-        <v>150</v>
+        <v>215</v>
       </c>
     </row>
     <row r="585" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49941,7 +49941,7 @@
         <v>1442</v>
       </c>
       <c r="O585" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="586" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -49988,7 +49988,7 @@
         <v>1442</v>
       </c>
       <c r="O586" s="3">
-        <v>178</v>
+        <v>254</v>
       </c>
     </row>
     <row r="587" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50035,7 +50035,7 @@
         <v>1442</v>
       </c>
       <c r="O587" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="588" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50082,7 +50082,7 @@
         <v>1442</v>
       </c>
       <c r="O588" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="589" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50129,7 +50129,7 @@
         <v>1442</v>
       </c>
       <c r="O589" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="590" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50176,7 +50176,7 @@
         <v>1442</v>
       </c>
       <c r="O590" s="3">
-        <v>232</v>
+        <v>332</v>
       </c>
     </row>
     <row r="591" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50223,7 +50223,7 @@
         <v>1442</v>
       </c>
       <c r="O591" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="592" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50270,7 +50270,7 @@
         <v>1442</v>
       </c>
       <c r="O592" s="3">
-        <v>260</v>
+        <v>371</v>
       </c>
     </row>
     <row r="593" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50317,7 +50317,7 @@
         <v>1442</v>
       </c>
       <c r="O593" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="594" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50364,7 +50364,7 @@
         <v>1442</v>
       </c>
       <c r="O594" s="3">
-        <v>287</v>
+        <v>410</v>
       </c>
     </row>
     <row r="595" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50411,7 +50411,7 @@
         <v>1442</v>
       </c>
       <c r="O595" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="596" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50458,7 +50458,7 @@
         <v>1442</v>
       </c>
       <c r="O596" s="3">
-        <v>314</v>
+        <v>449</v>
       </c>
     </row>
     <row r="597" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50505,7 +50505,7 @@
         <v>1442</v>
       </c>
       <c r="O597" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="598" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50552,7 +50552,7 @@
         <v>1442</v>
       </c>
       <c r="O598" s="3">
-        <v>342</v>
+        <v>488</v>
       </c>
     </row>
     <row r="599" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50599,7 +50599,7 @@
         <v>1442</v>
       </c>
       <c r="O599" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="600" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50646,7 +50646,7 @@
         <v>1442</v>
       </c>
       <c r="O600" s="3">
-        <v>369</v>
+        <v>527</v>
       </c>
     </row>
     <row r="601" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50693,7 +50693,7 @@
         <v>1442</v>
       </c>
       <c r="O601" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="602" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50740,7 +50740,7 @@
         <v>1442</v>
       </c>
       <c r="O602" s="3">
-        <v>397</v>
+        <v>566</v>
       </c>
     </row>
     <row r="603" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50787,7 +50787,7 @@
         <v>1442</v>
       </c>
       <c r="O603" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="604" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50824,7 +50824,7 @@
         <v>1442</v>
       </c>
       <c r="O604" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="605" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50871,7 +50871,7 @@
         <v>1442</v>
       </c>
       <c r="O605" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="606" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50918,7 +50918,7 @@
         <v>1442</v>
       </c>
       <c r="O606" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="607" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -50965,7 +50965,7 @@
         <v>1442</v>
       </c>
       <c r="O607" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="608" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51012,7 +51012,7 @@
         <v>1442</v>
       </c>
       <c r="O608" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="609" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51059,7 +51059,7 @@
         <v>1442</v>
       </c>
       <c r="O609" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="610" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51106,7 +51106,7 @@
         <v>1442</v>
       </c>
       <c r="O610" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="611" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51153,7 +51153,7 @@
         <v>1442</v>
       </c>
       <c r="O611" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="612" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51200,7 +51200,7 @@
         <v>1442</v>
       </c>
       <c r="O612" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="613" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51247,7 +51247,7 @@
         <v>1442</v>
       </c>
       <c r="O613" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="614" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51294,7 +51294,7 @@
         <v>1442</v>
       </c>
       <c r="O614" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="615" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51341,7 +51341,7 @@
         <v>1442</v>
       </c>
       <c r="O615" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="616" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51388,7 +51388,7 @@
         <v>1442</v>
       </c>
       <c r="O616" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="617" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51435,7 +51435,7 @@
         <v>1442</v>
       </c>
       <c r="O617" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="618" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51482,7 +51482,7 @@
         <v>1442</v>
       </c>
       <c r="O618" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="619" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51529,7 +51529,7 @@
         <v>1442</v>
       </c>
       <c r="O619" s="3">
-        <v>438</v>
+        <v>625</v>
       </c>
     </row>
     <row r="620" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51576,7 +51576,7 @@
         <v>1442</v>
       </c>
       <c r="O620" s="3">
-        <v>465</v>
+        <v>664</v>
       </c>
     </row>
     <row r="621" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51623,7 +51623,7 @@
         <v>1442</v>
       </c>
       <c r="O621" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="622" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51670,7 +51670,7 @@
         <v>1442</v>
       </c>
       <c r="O622" s="3">
-        <v>520</v>
+        <v>742</v>
       </c>
     </row>
     <row r="623" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51717,7 +51717,7 @@
         <v>1442</v>
       </c>
       <c r="O623" s="3">
-        <v>547</v>
+        <v>781</v>
       </c>
     </row>
     <row r="624" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51764,7 +51764,7 @@
         <v>1442</v>
       </c>
       <c r="O624" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="625" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51811,7 +51811,7 @@
         <v>1442</v>
       </c>
       <c r="O625" s="3">
-        <v>602</v>
+        <v>859</v>
       </c>
     </row>
     <row r="626" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51858,7 +51858,7 @@
         <v>1442</v>
       </c>
       <c r="O626" s="3">
-        <v>629</v>
+        <v>899</v>
       </c>
     </row>
     <row r="627" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51905,7 +51905,7 @@
         <v>1442</v>
       </c>
       <c r="O627" s="3">
-        <v>656</v>
+        <v>938</v>
       </c>
     </row>
     <row r="628" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51952,7 +51952,7 @@
         <v>1442</v>
       </c>
       <c r="O628" s="3">
-        <v>684</v>
+        <v>977</v>
       </c>
     </row>
     <row r="629" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -51999,7 +51999,7 @@
         <v>1442</v>
       </c>
       <c r="O629" s="3">
-        <v>711</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="630" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52046,7 +52046,7 @@
         <v>1442</v>
       </c>
       <c r="O630" s="3">
-        <v>738</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="631" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52093,7 +52093,7 @@
         <v>1442</v>
       </c>
       <c r="O631" s="3">
-        <v>766</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="632" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52140,7 +52140,7 @@
         <v>1442</v>
       </c>
       <c r="O632" s="3">
-        <v>793</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="633" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52187,7 +52187,7 @@
         <v>1442</v>
       </c>
       <c r="O633" s="3">
-        <v>820</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="634" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52224,7 +52224,7 @@
         <v>1442</v>
       </c>
       <c r="O634" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="635" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52271,7 +52271,7 @@
         <v>1442</v>
       </c>
       <c r="O635" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="636" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52318,7 +52318,7 @@
         <v>1442</v>
       </c>
       <c r="O636" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="637" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52365,7 +52365,7 @@
         <v>1442</v>
       </c>
       <c r="O637" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="638" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52412,7 +52412,7 @@
         <v>1442</v>
       </c>
       <c r="O638" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="639" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52459,7 +52459,7 @@
         <v>1442</v>
       </c>
       <c r="O639" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="640" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52506,7 +52506,7 @@
         <v>1442</v>
       </c>
       <c r="O640" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="641" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52553,7 +52553,7 @@
         <v>1442</v>
       </c>
       <c r="O641" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="642" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52600,7 +52600,7 @@
         <v>1442</v>
       </c>
       <c r="O642" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="643" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52647,7 +52647,7 @@
         <v>1442</v>
       </c>
       <c r="O643" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="644" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52694,7 +52694,7 @@
         <v>1442</v>
       </c>
       <c r="O644" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="645" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52741,7 +52741,7 @@
         <v>1442</v>
       </c>
       <c r="O645" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="646" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52788,7 +52788,7 @@
         <v>1442</v>
       </c>
       <c r="O646" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="647" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52835,7 +52835,7 @@
         <v>1442</v>
       </c>
       <c r="O647" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="648" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52882,7 +52882,7 @@
         <v>1442</v>
       </c>
       <c r="O648" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="649" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52929,7 +52929,7 @@
         <v>1442</v>
       </c>
       <c r="O649" s="3">
-        <v>438</v>
+        <v>625</v>
       </c>
     </row>
     <row r="650" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -52976,7 +52976,7 @@
         <v>1442</v>
       </c>
       <c r="O650" s="3">
-        <v>465</v>
+        <v>664</v>
       </c>
     </row>
     <row r="651" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53023,7 +53023,7 @@
         <v>1442</v>
       </c>
       <c r="O651" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="652" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53070,7 +53070,7 @@
         <v>1442</v>
       </c>
       <c r="O652" s="3">
-        <v>520</v>
+        <v>742</v>
       </c>
     </row>
     <row r="653" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53117,7 +53117,7 @@
         <v>1442</v>
       </c>
       <c r="O653" s="3">
-        <v>547</v>
+        <v>781</v>
       </c>
     </row>
     <row r="654" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53164,7 +53164,7 @@
         <v>1442</v>
       </c>
       <c r="O654" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="655" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53211,7 +53211,7 @@
         <v>1442</v>
       </c>
       <c r="O655" s="3">
-        <v>602</v>
+        <v>859</v>
       </c>
     </row>
     <row r="656" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53258,7 +53258,7 @@
         <v>1442</v>
       </c>
       <c r="O656" s="3">
-        <v>629</v>
+        <v>899</v>
       </c>
     </row>
     <row r="657" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53305,7 +53305,7 @@
         <v>1442</v>
       </c>
       <c r="O657" s="3">
-        <v>656</v>
+        <v>938</v>
       </c>
     </row>
     <row r="658" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53352,7 +53352,7 @@
         <v>1442</v>
       </c>
       <c r="O658" s="3">
-        <v>684</v>
+        <v>977</v>
       </c>
     </row>
     <row r="659" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53399,7 +53399,7 @@
         <v>1442</v>
       </c>
       <c r="O659" s="3">
-        <v>711</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="660" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53446,7 +53446,7 @@
         <v>1442</v>
       </c>
       <c r="O660" s="3">
-        <v>738</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="661" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53493,7 +53493,7 @@
         <v>1442</v>
       </c>
       <c r="O661" s="3">
-        <v>766</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="662" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53540,7 +53540,7 @@
         <v>1442</v>
       </c>
       <c r="O662" s="3">
-        <v>793</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="663" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -53587,7 +53587,7 @@
         <v>1442</v>
       </c>
       <c r="O663" s="3">
-        <v>820</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="664" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55026,7 +55026,7 @@
         <v>1442</v>
       </c>
       <c r="O694" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="695" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55073,7 +55073,7 @@
         <v>1442</v>
       </c>
       <c r="O695" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="696" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55120,7 +55120,7 @@
         <v>1442</v>
       </c>
       <c r="O696" s="3">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="697" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55167,7 +55167,7 @@
         <v>1442</v>
       </c>
       <c r="O697" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="698" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55214,7 +55214,7 @@
         <v>1442</v>
       </c>
       <c r="O698" s="3">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="699" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55261,7 +55261,7 @@
         <v>1442</v>
       </c>
       <c r="O699" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="700" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55308,7 +55308,7 @@
         <v>1442</v>
       </c>
       <c r="O700" s="3">
-        <v>144</v>
+        <v>205</v>
       </c>
     </row>
     <row r="701" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55355,7 +55355,7 @@
         <v>1442</v>
       </c>
       <c r="O701" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="702" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55402,7 +55402,7 @@
         <v>1442</v>
       </c>
       <c r="O702" s="3">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="703" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55449,7 +55449,7 @@
         <v>1442</v>
       </c>
       <c r="O703" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="704" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55496,7 +55496,7 @@
         <v>1442</v>
       </c>
       <c r="O704" s="3">
-        <v>226</v>
+        <v>322</v>
       </c>
     </row>
     <row r="705" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55543,7 +55543,7 @@
         <v>1442</v>
       </c>
       <c r="O705" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="706" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55590,7 +55590,7 @@
         <v>1442</v>
       </c>
       <c r="O706" s="3">
-        <v>267</v>
+        <v>381</v>
       </c>
     </row>
     <row r="707" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55637,7 +55637,7 @@
         <v>1442</v>
       </c>
       <c r="O707" s="3">
-        <v>287</v>
+        <v>410</v>
       </c>
     </row>
     <row r="708" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55684,7 +55684,7 @@
         <v>1442</v>
       </c>
       <c r="O708" s="3">
-        <v>308</v>
+        <v>440</v>
       </c>
     </row>
     <row r="709" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55731,7 +55731,7 @@
         <v>1442</v>
       </c>
       <c r="O709" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="710" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55778,7 +55778,7 @@
         <v>1442</v>
       </c>
       <c r="O710" s="3">
-        <v>349</v>
+        <v>498</v>
       </c>
     </row>
     <row r="711" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55825,7 +55825,7 @@
         <v>1442</v>
       </c>
       <c r="O711" s="3">
-        <v>369</v>
+        <v>527</v>
       </c>
     </row>
     <row r="712" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55872,7 +55872,7 @@
         <v>1442</v>
       </c>
       <c r="O712" s="3">
-        <v>390</v>
+        <v>557</v>
       </c>
     </row>
     <row r="713" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55919,7 +55919,7 @@
         <v>1442</v>
       </c>
       <c r="O713" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="714" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -55966,7 +55966,7 @@
         <v>1442</v>
       </c>
       <c r="O714" s="3">
-        <v>431</v>
+        <v>615</v>
       </c>
     </row>
     <row r="715" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56013,7 +56013,7 @@
         <v>1442</v>
       </c>
       <c r="O715" s="3">
-        <v>451</v>
+        <v>645</v>
       </c>
     </row>
     <row r="716" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56060,7 +56060,7 @@
         <v>1442</v>
       </c>
       <c r="O716" s="3">
-        <v>472</v>
+        <v>674</v>
       </c>
     </row>
     <row r="717" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56107,7 +56107,7 @@
         <v>1442</v>
       </c>
       <c r="O717" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="718" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56154,7 +56154,7 @@
         <v>1442</v>
       </c>
       <c r="O718" s="3">
-        <v>513</v>
+        <v>733</v>
       </c>
     </row>
     <row r="719" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56201,7 +56201,7 @@
         <v>1442</v>
       </c>
       <c r="O719" s="3">
-        <v>533</v>
+        <v>762</v>
       </c>
     </row>
     <row r="720" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56248,7 +56248,7 @@
         <v>1442</v>
       </c>
       <c r="O720" s="3">
-        <v>554</v>
+        <v>791</v>
       </c>
     </row>
     <row r="721" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56295,7 +56295,7 @@
         <v>1442</v>
       </c>
       <c r="O721" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="722" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56342,7 +56342,7 @@
         <v>1442</v>
       </c>
       <c r="O722" s="3">
-        <v>595</v>
+        <v>850</v>
       </c>
     </row>
     <row r="723" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -56389,7 +56389,7 @@
         <v>1442</v>
       </c>
       <c r="O723" s="3">
-        <v>615</v>
+        <v>879</v>
       </c>
     </row>
     <row r="724" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -57828,7 +57828,7 @@
         <v>1442</v>
       </c>
       <c r="O754" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="755" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -57875,7 +57875,7 @@
         <v>1442</v>
       </c>
       <c r="O755" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="756" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -57922,7 +57922,7 @@
         <v>1442</v>
       </c>
       <c r="O756" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="757" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -57969,7 +57969,7 @@
         <v>1442</v>
       </c>
       <c r="O757" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="758" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58016,7 +58016,7 @@
         <v>1442</v>
       </c>
       <c r="O758" s="3">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="759" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58063,7 +58063,7 @@
         <v>1442</v>
       </c>
       <c r="O759" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="760" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58110,7 +58110,7 @@
         <v>1442</v>
       </c>
       <c r="O760" s="3">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="761" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58157,7 +58157,7 @@
         <v>1442</v>
       </c>
       <c r="O761" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="762" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58204,7 +58204,7 @@
         <v>1442</v>
       </c>
       <c r="O762" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="763" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58251,7 +58251,7 @@
         <v>1442</v>
       </c>
       <c r="O763" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="764" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58298,7 +58298,7 @@
         <v>1442</v>
       </c>
       <c r="O764" s="3">
-        <v>150</v>
+        <v>215</v>
       </c>
     </row>
     <row r="765" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58345,7 +58345,7 @@
         <v>1442</v>
       </c>
       <c r="O765" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="766" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58392,7 +58392,7 @@
         <v>1442</v>
       </c>
       <c r="O766" s="3">
-        <v>178</v>
+        <v>254</v>
       </c>
     </row>
     <row r="767" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58439,7 +58439,7 @@
         <v>1442</v>
       </c>
       <c r="O767" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="768" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58486,7 +58486,7 @@
         <v>1442</v>
       </c>
       <c r="O768" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="769" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58533,7 +58533,7 @@
         <v>1442</v>
       </c>
       <c r="O769" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="770" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58580,7 +58580,7 @@
         <v>1442</v>
       </c>
       <c r="O770" s="3">
-        <v>232</v>
+        <v>332</v>
       </c>
     </row>
     <row r="771" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58627,7 +58627,7 @@
         <v>1442</v>
       </c>
       <c r="O771" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="772" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58674,7 +58674,7 @@
         <v>1442</v>
       </c>
       <c r="O772" s="3">
-        <v>260</v>
+        <v>371</v>
       </c>
     </row>
     <row r="773" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58721,7 +58721,7 @@
         <v>1442</v>
       </c>
       <c r="O773" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="774" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58768,7 +58768,7 @@
         <v>1442</v>
       </c>
       <c r="O774" s="3">
-        <v>287</v>
+        <v>410</v>
       </c>
     </row>
     <row r="775" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58815,7 +58815,7 @@
         <v>1442</v>
       </c>
       <c r="O775" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="776" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58862,7 +58862,7 @@
         <v>1442</v>
       </c>
       <c r="O776" s="3">
-        <v>314</v>
+        <v>449</v>
       </c>
     </row>
     <row r="777" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58909,7 +58909,7 @@
         <v>1442</v>
       </c>
       <c r="O777" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="778" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -58956,7 +58956,7 @@
         <v>1442</v>
       </c>
       <c r="O778" s="3">
-        <v>342</v>
+        <v>488</v>
       </c>
     </row>
     <row r="779" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59003,7 +59003,7 @@
         <v>1442</v>
       </c>
       <c r="O779" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="780" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59050,7 +59050,7 @@
         <v>1442</v>
       </c>
       <c r="O780" s="3">
-        <v>369</v>
+        <v>527</v>
       </c>
     </row>
     <row r="781" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59097,7 +59097,7 @@
         <v>1442</v>
       </c>
       <c r="O781" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="782" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59144,7 +59144,7 @@
         <v>1442</v>
       </c>
       <c r="O782" s="3">
-        <v>397</v>
+        <v>566</v>
       </c>
     </row>
     <row r="783" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59191,7 +59191,7 @@
         <v>1442</v>
       </c>
       <c r="O783" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="784" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59228,7 +59228,7 @@
         <v>1442</v>
       </c>
       <c r="O784" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="785" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59275,7 +59275,7 @@
         <v>1442</v>
       </c>
       <c r="O785" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="786" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59322,7 +59322,7 @@
         <v>1442</v>
       </c>
       <c r="O786" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="787" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59369,7 +59369,7 @@
         <v>1442</v>
       </c>
       <c r="O787" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="788" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59416,7 +59416,7 @@
         <v>1442</v>
       </c>
       <c r="O788" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="789" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59463,7 +59463,7 @@
         <v>1442</v>
       </c>
       <c r="O789" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="790" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59510,7 +59510,7 @@
         <v>1442</v>
       </c>
       <c r="O790" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="791" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59557,7 +59557,7 @@
         <v>1442</v>
       </c>
       <c r="O791" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="792" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59604,7 +59604,7 @@
         <v>1442</v>
       </c>
       <c r="O792" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="793" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59651,7 +59651,7 @@
         <v>1442</v>
       </c>
       <c r="O793" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="794" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59698,7 +59698,7 @@
         <v>1442</v>
       </c>
       <c r="O794" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="795" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59745,7 +59745,7 @@
         <v>1442</v>
       </c>
       <c r="O795" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="796" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59792,7 +59792,7 @@
         <v>1442</v>
       </c>
       <c r="O796" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="797" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59839,7 +59839,7 @@
         <v>1442</v>
       </c>
       <c r="O797" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="798" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59886,7 +59886,7 @@
         <v>1442</v>
       </c>
       <c r="O798" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="799" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59933,7 +59933,7 @@
         <v>1442</v>
       </c>
       <c r="O799" s="3">
-        <v>438</v>
+        <v>625</v>
       </c>
     </row>
     <row r="800" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -59980,7 +59980,7 @@
         <v>1442</v>
       </c>
       <c r="O800" s="3">
-        <v>465</v>
+        <v>664</v>
       </c>
     </row>
     <row r="801" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60027,7 +60027,7 @@
         <v>1442</v>
       </c>
       <c r="O801" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="802" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60074,7 +60074,7 @@
         <v>1442</v>
       </c>
       <c r="O802" s="3">
-        <v>520</v>
+        <v>742</v>
       </c>
     </row>
     <row r="803" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60121,7 +60121,7 @@
         <v>1442</v>
       </c>
       <c r="O803" s="3">
-        <v>547</v>
+        <v>781</v>
       </c>
     </row>
     <row r="804" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60168,7 +60168,7 @@
         <v>1442</v>
       </c>
       <c r="O804" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="805" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60215,7 +60215,7 @@
         <v>1442</v>
       </c>
       <c r="O805" s="3">
-        <v>602</v>
+        <v>859</v>
       </c>
     </row>
     <row r="806" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60262,7 +60262,7 @@
         <v>1442</v>
       </c>
       <c r="O806" s="3">
-        <v>629</v>
+        <v>899</v>
       </c>
     </row>
     <row r="807" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60309,7 +60309,7 @@
         <v>1442</v>
       </c>
       <c r="O807" s="3">
-        <v>656</v>
+        <v>938</v>
       </c>
     </row>
     <row r="808" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60356,7 +60356,7 @@
         <v>1442</v>
       </c>
       <c r="O808" s="3">
-        <v>684</v>
+        <v>977</v>
       </c>
     </row>
     <row r="809" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60403,7 +60403,7 @@
         <v>1442</v>
       </c>
       <c r="O809" s="3">
-        <v>711</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="810" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60450,7 +60450,7 @@
         <v>1442</v>
       </c>
       <c r="O810" s="3">
-        <v>738</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="811" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60497,7 +60497,7 @@
         <v>1442</v>
       </c>
       <c r="O811" s="3">
-        <v>766</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="812" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60544,7 +60544,7 @@
         <v>1442</v>
       </c>
       <c r="O812" s="3">
-        <v>793</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="813" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60591,7 +60591,7 @@
         <v>1442</v>
       </c>
       <c r="O813" s="3">
-        <v>820</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="814" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60628,7 +60628,7 @@
         <v>1442</v>
       </c>
       <c r="O814" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="815" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60675,7 +60675,7 @@
         <v>1442</v>
       </c>
       <c r="O815" s="3">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="816" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60722,7 +60722,7 @@
         <v>1442</v>
       </c>
       <c r="O816" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="817" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60769,7 +60769,7 @@
         <v>1442</v>
       </c>
       <c r="O817" s="3">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="818" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60816,7 +60816,7 @@
         <v>1442</v>
       </c>
       <c r="O818" s="3">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="819" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60863,7 +60863,7 @@
         <v>1442</v>
       </c>
       <c r="O819" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="820" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60910,7 +60910,7 @@
         <v>1442</v>
       </c>
       <c r="O820" s="3">
-        <v>191</v>
+        <v>273</v>
       </c>
     </row>
     <row r="821" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -60957,7 +60957,7 @@
         <v>1442</v>
       </c>
       <c r="O821" s="3">
-        <v>219</v>
+        <v>313</v>
       </c>
     </row>
     <row r="822" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61004,7 +61004,7 @@
         <v>1442</v>
       </c>
       <c r="O822" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="823" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61051,7 +61051,7 @@
         <v>1442</v>
       </c>
       <c r="O823" s="3">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="824" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61098,7 +61098,7 @@
         <v>1442</v>
       </c>
       <c r="O824" s="3">
-        <v>301</v>
+        <v>430</v>
       </c>
     </row>
     <row r="825" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61145,7 +61145,7 @@
         <v>1442</v>
       </c>
       <c r="O825" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="826" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61192,7 +61192,7 @@
         <v>1442</v>
       </c>
       <c r="O826" s="3">
-        <v>356</v>
+        <v>508</v>
       </c>
     </row>
     <row r="827" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61239,7 +61239,7 @@
         <v>1442</v>
       </c>
       <c r="O827" s="3">
-        <v>383</v>
+        <v>547</v>
       </c>
     </row>
     <row r="828" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61286,7 +61286,7 @@
         <v>1442</v>
       </c>
       <c r="O828" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="829" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61333,7 +61333,7 @@
         <v>1442</v>
       </c>
       <c r="O829" s="3">
-        <v>438</v>
+        <v>625</v>
       </c>
     </row>
     <row r="830" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61380,7 +61380,7 @@
         <v>1442</v>
       </c>
       <c r="O830" s="3">
-        <v>465</v>
+        <v>664</v>
       </c>
     </row>
     <row r="831" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61427,7 +61427,7 @@
         <v>1442</v>
       </c>
       <c r="O831" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="832" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61474,7 +61474,7 @@
         <v>1442</v>
       </c>
       <c r="O832" s="3">
-        <v>520</v>
+        <v>742</v>
       </c>
     </row>
     <row r="833" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61521,7 +61521,7 @@
         <v>1442</v>
       </c>
       <c r="O833" s="3">
-        <v>547</v>
+        <v>781</v>
       </c>
     </row>
     <row r="834" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61568,7 +61568,7 @@
         <v>1442</v>
       </c>
       <c r="O834" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="835" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61615,7 +61615,7 @@
         <v>1442</v>
       </c>
       <c r="O835" s="3">
-        <v>602</v>
+        <v>859</v>
       </c>
     </row>
     <row r="836" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61662,7 +61662,7 @@
         <v>1442</v>
       </c>
       <c r="O836" s="3">
-        <v>629</v>
+        <v>899</v>
       </c>
     </row>
     <row r="837" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61709,7 +61709,7 @@
         <v>1442</v>
       </c>
       <c r="O837" s="3">
-        <v>656</v>
+        <v>938</v>
       </c>
     </row>
     <row r="838" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61756,7 +61756,7 @@
         <v>1442</v>
       </c>
       <c r="O838" s="3">
-        <v>684</v>
+        <v>977</v>
       </c>
     </row>
     <row r="839" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61803,7 +61803,7 @@
         <v>1442</v>
       </c>
       <c r="O839" s="3">
-        <v>711</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="840" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61850,7 +61850,7 @@
         <v>1442</v>
       </c>
       <c r="O840" s="3">
-        <v>738</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="841" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61897,7 +61897,7 @@
         <v>1442</v>
       </c>
       <c r="O841" s="3">
-        <v>766</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="842" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61944,7 +61944,7 @@
         <v>1442</v>
       </c>
       <c r="O842" s="3">
-        <v>793</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="843" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -61991,7 +61991,7 @@
         <v>1442</v>
       </c>
       <c r="O843" s="3">
-        <v>820</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="844" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63430,7 +63430,7 @@
         <v>1442</v>
       </c>
       <c r="O874" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="875" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63477,7 +63477,7 @@
         <v>1442</v>
       </c>
       <c r="O875" s="3">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="876" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63524,7 +63524,7 @@
         <v>1442</v>
       </c>
       <c r="O876" s="3">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="877" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63571,7 +63571,7 @@
         <v>1442</v>
       </c>
       <c r="O877" s="3">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="878" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63618,7 +63618,7 @@
         <v>1442</v>
       </c>
       <c r="O878" s="3">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="879" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63665,7 +63665,7 @@
         <v>1442</v>
       </c>
       <c r="O879" s="3">
-        <v>123</v>
+        <v>176</v>
       </c>
     </row>
     <row r="880" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63712,7 +63712,7 @@
         <v>1442</v>
       </c>
       <c r="O880" s="3">
-        <v>144</v>
+        <v>205</v>
       </c>
     </row>
     <row r="881" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63759,7 +63759,7 @@
         <v>1442</v>
       </c>
       <c r="O881" s="3">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="882" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63806,7 +63806,7 @@
         <v>1442</v>
       </c>
       <c r="O882" s="3">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="883" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63853,7 +63853,7 @@
         <v>1442</v>
       </c>
       <c r="O883" s="3">
-        <v>205</v>
+        <v>293</v>
       </c>
     </row>
     <row r="884" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63900,7 +63900,7 @@
         <v>1442</v>
       </c>
       <c r="O884" s="3">
-        <v>226</v>
+        <v>322</v>
       </c>
     </row>
     <row r="885" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63947,7 +63947,7 @@
         <v>1442</v>
       </c>
       <c r="O885" s="3">
-        <v>246</v>
+        <v>352</v>
       </c>
     </row>
     <row r="886" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -63994,7 +63994,7 @@
         <v>1442</v>
       </c>
       <c r="O886" s="3">
-        <v>267</v>
+        <v>381</v>
       </c>
     </row>
     <row r="887" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64041,7 +64041,7 @@
         <v>1442</v>
       </c>
       <c r="O887" s="3">
-        <v>287</v>
+        <v>410</v>
       </c>
     </row>
     <row r="888" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64088,7 +64088,7 @@
         <v>1442</v>
       </c>
       <c r="O888" s="3">
-        <v>308</v>
+        <v>440</v>
       </c>
     </row>
     <row r="889" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64135,7 +64135,7 @@
         <v>1442</v>
       </c>
       <c r="O889" s="3">
-        <v>328</v>
+        <v>469</v>
       </c>
     </row>
     <row r="890" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64182,7 +64182,7 @@
         <v>1442</v>
       </c>
       <c r="O890" s="3">
-        <v>349</v>
+        <v>498</v>
       </c>
     </row>
     <row r="891" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64229,7 +64229,7 @@
         <v>1442</v>
       </c>
       <c r="O891" s="3">
-        <v>369</v>
+        <v>527</v>
       </c>
     </row>
     <row r="892" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64276,7 +64276,7 @@
         <v>1442</v>
       </c>
       <c r="O892" s="3">
-        <v>390</v>
+        <v>557</v>
       </c>
     </row>
     <row r="893" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64323,7 +64323,7 @@
         <v>1442</v>
       </c>
       <c r="O893" s="3">
-        <v>410</v>
+        <v>586</v>
       </c>
     </row>
     <row r="894" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64370,7 +64370,7 @@
         <v>1442</v>
       </c>
       <c r="O894" s="3">
-        <v>431</v>
+        <v>615</v>
       </c>
     </row>
     <row r="895" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64417,7 +64417,7 @@
         <v>1442</v>
       </c>
       <c r="O895" s="3">
-        <v>451</v>
+        <v>645</v>
       </c>
     </row>
     <row r="896" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64464,7 +64464,7 @@
         <v>1442</v>
       </c>
       <c r="O896" s="3">
-        <v>472</v>
+        <v>674</v>
       </c>
     </row>
     <row r="897" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64511,7 +64511,7 @@
         <v>1442</v>
       </c>
       <c r="O897" s="3">
-        <v>492</v>
+        <v>703</v>
       </c>
     </row>
     <row r="898" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64558,7 +64558,7 @@
         <v>1442</v>
       </c>
       <c r="O898" s="3">
-        <v>513</v>
+        <v>733</v>
       </c>
     </row>
     <row r="899" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64605,7 +64605,7 @@
         <v>1442</v>
       </c>
       <c r="O899" s="3">
-        <v>533</v>
+        <v>762</v>
       </c>
     </row>
     <row r="900" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64652,7 +64652,7 @@
         <v>1442</v>
       </c>
       <c r="O900" s="3">
-        <v>554</v>
+        <v>791</v>
       </c>
     </row>
     <row r="901" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64699,7 +64699,7 @@
         <v>1442</v>
       </c>
       <c r="O901" s="3">
-        <v>574</v>
+        <v>820</v>
       </c>
     </row>
     <row r="902" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64746,7 +64746,7 @@
         <v>1442</v>
       </c>
       <c r="O902" s="3">
-        <v>595</v>
+        <v>850</v>
       </c>
     </row>
     <row r="903" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -64793,7 +64793,7 @@
         <v>1442</v>
       </c>
       <c r="O903" s="3">
-        <v>615</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/relic.神器.xlsx
+++ b/Excel/镇魂街/relic.神器.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0417691F-35F1-4F82-8F98-B9C5EC107908}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -7073,10 +7074,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每回合获得水晶+1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CrystalRec</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7169,12 +7166,16 @@
   </si>
   <si>
     <t>禁纹</t>
+  </si>
+  <si>
+    <t>每回合获得水晶+2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7405,20 +7406,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7695,7 +7696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7989,7 +7990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8242,7 +8243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19681,11 +19682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19877,10 +19878,10 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>1519</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>1520</v>
       </c>
       <c r="L4" s="7">
         <v>2</v>
@@ -21704,11 +21705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21830,7 +21831,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>98</v>
@@ -21865,7 +21866,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>99</v>
@@ -21900,7 +21901,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>100</v>
@@ -21935,7 +21936,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>101</v>
@@ -21970,7 +21971,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>102</v>
@@ -22005,7 +22006,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>103</v>
@@ -22040,7 +22041,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>104</v>
@@ -22075,7 +22076,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>105</v>
@@ -22110,7 +22111,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>106</v>
@@ -22145,7 +22146,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>107</v>
@@ -22180,7 +22181,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>108</v>
@@ -22215,7 +22216,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>109</v>
@@ -22250,7 +22251,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>110</v>
@@ -22282,7 +22283,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>111</v>
@@ -22314,7 +22315,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>112</v>
@@ -22346,7 +22347,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>113</v>
@@ -22378,7 +22379,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>114</v>
@@ -22410,7 +22411,7 @@
         <v>6</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>115</v>
@@ -22442,7 +22443,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>116</v>
@@ -22474,7 +22475,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>117</v>
@@ -22506,7 +22507,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>118</v>
@@ -22538,7 +22539,7 @@
         <v>4</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>119</v>
@@ -22570,7 +22571,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>120</v>
@@ -22602,7 +22603,7 @@
         <v>6</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>121</v>
@@ -22634,7 +22635,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>122</v>
@@ -22666,7 +22667,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>123</v>
@@ -22698,7 +22699,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>124</v>
@@ -22730,7 +22731,7 @@
         <v>4</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>125</v>
@@ -22762,7 +22763,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>126</v>
@@ -22794,7 +22795,7 @@
         <v>6</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>127</v>
@@ -22814,7 +22815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22982,7 +22983,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -24384,7 +24385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -25786,7 +25787,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>61</v>
       </c>
@@ -27186,7 +27187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>91</v>
       </c>
@@ -29990,7 +29991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>151</v>
       </c>
@@ -31392,7 +31393,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>181</v>
       </c>
@@ -32794,7 +32795,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>211</v>
       </c>
@@ -34196,7 +34197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="244" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>241</v>
       </c>
@@ -35596,7 +35597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>271</v>
       </c>
@@ -36996,7 +36997,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>301</v>
       </c>
@@ -39800,7 +39801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="364" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A364" s="3">
         <v>361</v>
       </c>
@@ -41202,7 +41203,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A394" s="3">
         <v>391</v>
       </c>
@@ -42602,7 +42603,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="424" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A424" s="3">
         <v>421</v>
       </c>
@@ -44002,7 +44003,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="454" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A454" s="3">
         <v>451</v>
       </c>
@@ -45402,7 +45403,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="484" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A484" s="3">
         <v>481</v>
       </c>
@@ -46804,7 +46805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="514" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A514" s="3">
         <v>511</v>
       </c>
@@ -48204,7 +48205,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="544" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A544" s="3">
         <v>541</v>
       </c>
@@ -49606,7 +49607,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="574" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A574" s="3">
         <v>571</v>
       </c>
@@ -51006,7 +51007,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="604" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A604" s="3">
         <v>601</v>
       </c>
@@ -52406,7 +52407,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="634" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A634" s="3">
         <v>631</v>
       </c>
@@ -53806,7 +53807,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="664" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A664" s="3">
         <v>661</v>
       </c>
@@ -55208,7 +55209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="694" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A694" s="3">
         <v>691</v>
       </c>
@@ -56608,7 +56609,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="724" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A724" s="3">
         <v>721</v>
       </c>
@@ -58010,7 +58011,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="754" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A754" s="3">
         <v>751</v>
       </c>
@@ -59410,7 +59411,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="784" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A784" s="3">
         <v>781</v>
       </c>
@@ -60810,7 +60811,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="814" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A814" s="3">
         <v>811</v>
       </c>
@@ -62210,7 +62211,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="844" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A844" s="3">
         <v>841</v>
       </c>
@@ -63612,7 +63613,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="874" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A874" s="3">
         <v>871</v>
       </c>
@@ -65020,7 +65021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/relic.神器.xlsx
+++ b/Excel/镇魂街/relic.神器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9037" uniqueCount="1881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9040" uniqueCount="1884">
   <si>
     <t>sheet名</t>
   </si>
@@ -6000,6 +6000,18 @@
   </si>
   <si>
     <t>高级神器3配件6-禁纹Lvs40</t>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6813,21 +6825,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="93.375" customWidth="1"/>
+    <col min="4" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="93.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>336</v>
       </c>
@@ -6835,22 +6847,25 @@
         <v>274</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>286</v>
       </c>
@@ -6858,22 +6873,25 @@
         <v>157</v>
       </c>
       <c r="C2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>293</v>
       </c>
       <c r="E2" t="s">
         <v>293</v>
       </c>
       <c r="F2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>337</v>
       </c>
@@ -6881,179 +6899,203 @@
         <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>101</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>106</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>106</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>201</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>106</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
         <v>202</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>106</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>301</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>101</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>302</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>102</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>303</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>103</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -22922,11 +22964,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/relic.神器.xlsx
+++ b/Excel/镇魂街/relic.神器.xlsx
@@ -5296,7 +5296,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/relic.神器.xlsx
+++ b/Excel/镇魂街/relic.神器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -5447,8 +5447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11487,7 +11487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
